--- a/artifacts/recipes/new_data/allrecipescom/healthy/healthy_side-dishes.xlsx
+++ b/artifacts/recipes/new_data/allrecipescom/healthy/healthy_side-dishes.xlsx
@@ -1,39 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+  </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rIdSheet1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="@"/>
-  </numFmts>
-  <fonts count="1">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -41,26 +45,395 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K62"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>web-scraper-order</t>
@@ -83,7 +456,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>card-href</t>
+          <t>recipe_card-href</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -93,7 +466,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>recipe_details_table</t>
+          <t>recipe_details</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -117,80 +490,48 @@
         </is>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="inlineStr">
+    <row r="2">
+      <c r="A2" t="inlineStr">
         <is>
           <t>1699658339-1</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1321/healthy-recipes/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1321/healthy-recipes/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
         <is>
           <t>Healthy Side Dishes</t>
         </is>
       </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
         <is>
           <t>1699658346-2</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1321/healthy-recipes/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D3" s="1" t="inlineStr">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1321/healthy-recipes/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/LO6dK5G8739BNrdbn3pFFOUJrk8=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1511x0:1513x2):format(webp)/6072834-a972db63d35e48e0813414a6658a9858.jpg"
@@ -203,59 +544,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/87496/middle-eastern-rice-with-black-beans-and-chickpeas/</t>
         </is>
       </c>
-      <c r="F3" s="1" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Middle Eastern Rice with Black Beans and Chickpeas</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n35 mins\n\n\nTotal Time:\n50 mins\n\n\nServings:\n8"}]</t>
         </is>
       </c>
-      <c r="H3" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 tablespoon olive oil\n\n\n1 clove garlic, minced\n\n\n1 cup uncooked basmati rice\n\n\n2 teaspoons ground cumin\n\n\n2 teaspoons ground coriander\n\n\n1 teaspoon ground turmeric\n\n\n1 teaspoon ground cayenne pepper\n\n\n1 quart chicken stock\n\n\n1 ½ pounds ground turkey\n\n\n2 (15 ounce) cans garbanzo beans (chickpeas), drained and rinsed\n\n\n2 (15 ounce) cans black beans, drained and rinsed\n\n\n1 bunch chopped fresh cilantro (Optional)\n\n\n1 bunch chopped fresh parsley (Optional)\n\n\n¼ cup pine nuts (Optional)\n\n\n  salt and ground black pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I3" s="1" t="inlineStr">
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 tablespoon olive oil\n\n\n1 clove garlic, minced\n\n\n1 cup uncooked basmati rice\n\n\n2 teaspoons ground cumin\n\n\n2 teaspoons ground coriander\n\n\n1 teaspoon ground turmeric\n\n\n1 teaspoon ground cayenne pepper\n\n\n1 quart chicken stock\n\n\n1 ½ pounds ground turkey\n\n\n2 (15 ounce) cans garbanzo beans (chickpeas), drained and rinsed\n\n\n2 (15 ounce) cans black beans, drained and rinsed\n\n\n1 bunch chopped fresh cilantro (Optional)\n\n\n1 bunch chopped fresh parsley (Optional)\n\n\n¼ cup pine nuts (Optional)\n\n\n  salt and ground black pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat olive oil in a large saucepan over medium heat. Stir in garlic; cook for 1 minute. Stir in rice, cumin, coriander, turmeric, and cayenne pepper. Cook and stir for 5 minutes, then pour in stock and bring to a boil. Reduce heat to low, cover, and simmer for 20 minutes."},{"recipe_directions":"Meanwhile, place ground turkey in a large skillet over medium heat. Cook and stir until crumbly and evenly browned."},{"recipe_directions":"Gently stir turkey, garbanzo beans, black beans, cilantro, parsley, and pine nuts into cooked rice. Season with salt and black pepper."}]</t>
         </is>
       </c>
-      <c r="J3" s="1" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Rice Side Dish Recipes"}]</t>
         </is>
       </c>
-      <c r="K3" s="1" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"453\nCalories\n\n\n12g \nFat\n\n\n56g \nCarbs\n\n\n31g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="inlineStr">
+    <row r="4">
+      <c r="A4" t="inlineStr">
         <is>
           <t>1699658354-3</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1321/healthy-recipes/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1321/healthy-recipes/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/dCNrQrSb0GO4tbYsodr96Abkgpo=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/easy-lima-beans-1-by-1-2000-1892c428dcaa4470abfb5c95c549d3e3.jpg"
@@ -269,59 +606,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E4" s="1" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/46990/easy-lima-beans/</t>
         </is>
       </c>
-      <c r="F4" s="1" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Easy Lima Beans</t>
         </is>
       </c>
-      <c r="G4" s="1" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n40 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"cooking spray\n\n\n½ medium onion, finely chopped\n\n\n1 ½ cups chicken broth\n\n\n1 (16 ounce) package frozen baby lima beans\n\n\n1/4 cup water, or as needed to cover"}]</t>
-        </is>
-      </c>
-      <c r="I4" s="1" t="inlineStr">
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': 'cooking spray\n\n\n½ medium onion, finely chopped\n\n\n1 ½ cups chicken broth\n\n\n1 (16 ounce) package frozen baby lima beans\n\n\n1/4 cup water, or as needed to cover'}]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Spray a large saucepan with cooking spray and heat over medium heat. Add onion to the hot pan and sauté until translucent, about 5 minutes. Pour in chicken broth and bring to a boil."},{"recipe_directions":"Add lima beans and enough water just to cover. Return to a boil, then reduce the heat to low, cover, and simmer until beans are tender, about 30 minutes."}]</t>
         </is>
       </c>
-      <c r="J4" s="1" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Beans and Peas"}]</t>
         </is>
       </c>
-      <c r="K4" s="1" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"84\nCalories\n\n\n16g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="inlineStr">
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>1699658364-4</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1321/healthy-recipes/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1321/healthy-recipes/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/OoNQpk8GT4w6ybfBDP8uOSCooc0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(2408x1480:2410x1482):format(webp)/70312-Refried-Beans-Without-the-Fry-DDMFS-4X3-2643-f6a23c1b1e5d41108f8a1e7a07284202.jpg"
@@ -335,59 +668,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E5" s="1" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/70312/refried-beans-without-the-refry/</t>
         </is>
       </c>
-      <c r="F5" s="1" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Refried Beans Without the Refry</t>
         </is>
       </c>
-      <c r="G5" s="1" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n 8 hrs\n\n\nTotal Time:\n 8 hrs 15 mins\n\n\nServings:\n15"}]</t>
         </is>
       </c>
-      <c r="H5" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3 cups dry pinto beans, rinsed\n\n\n1  onion, peeled and halved\n\n\n½  fresh jalapeno pepper, seeded and chopped\n\n\n2 tablespoons minced garlic\n\n\n5 teaspoons salt\n\n\n1 ¾ teaspoons fresh ground black pepper \n\n\n⅛ teaspoon ground cumin, optional\n\n\n9 cups water"}]</t>
-        </is>
-      </c>
-      <c r="I5" s="1" t="inlineStr">
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 cups dry pinto beans, rinsed\n\n\n1  onion, peeled and halved\n\n\n½  fresh jalapeno pepper, seeded and chopped\n\n\n2 tablespoons minced garlic\n\n\n5 teaspoons salt\n\n\n1 ¾ teaspoons fresh ground black pepper \n\n\n⅛ teaspoon ground cumin, optional\n\n\n9 cups water'}]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Gather all ingredients."},{"recipe_directions":"Place beans, onion, jalapeño, garlic, salt, pepper, and cumin into a slow cooker. Pour in water; stir to combine."},{"recipe_directions":"Cook on High until beans are very tender, about 8 hours; add more water as needed."},{"recipe_directions":"Strain beans and reserve cooking liquid."},{"recipe_directions":"Transfer beans to a large, shallow bowl. Use a potato masher to mash beans, adding reserved cooking liquid as needed to reach desired consistency."},{"recipe_directions":"Enjoy!"},{"recipe_directions":"If more than 1 cup water has evaporated during cooking in step 2, then the temperature is too high."}]</t>
         </is>
       </c>
-      <c r="J5" s="1" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Beans and Peas"}]</t>
         </is>
       </c>
-      <c r="K5" s="1" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"139\nCalories\n\n\n1g \nFat\n\n\n25g \nCarbs\n\n\n9g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1" t="inlineStr">
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>1699658371-5</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1321/healthy-recipes/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1321/healthy-recipes/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/1Sx_QnvZz22zU18vEFHzreARu3Q=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/7899709-simple-fried-morel-mushrooms-Devin-4x3-1-e3bd9ca954a74d9795e39e695c8f13e1.jpg"
@@ -401,59 +730,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E6" s="1" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/220833/simple-fried-morel-mushrooms/</t>
         </is>
       </c>
-      <c r="F6" s="1" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Simple Fried Morel Mushrooms</t>
         </is>
       </c>
-      <c r="G6" s="1" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H6" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 pound fresh morel mushrooms - dirt gently brushed off and mushrooms halved lengthwise\n\n\n1 cup all-purpose flour\n\n\n1 cup vegetable shortening\n\n\n  salt to taste"}]</t>
-        </is>
-      </c>
-      <c r="I6" s="1" t="inlineStr">
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 pound fresh morel mushrooms - dirt gently brushed off and mushrooms halved lengthwise\n\n\n1 cup all-purpose flour\n\n\n1 cup vegetable shortening\n\n\n  salt to taste'}]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place halved morel mushrooms in a large bowl; cover with cold, lightly salted water. Refrigerate mushrooms for about 5 minutes to loosen any dirt; pour off salted water, rinse, and repeat twice more. Crevices of the mushrooms may harbor tiny stones or even insects. Thoroughly rinse mushrooms a final time and allow to drain on paper towels."},{"recipe_directions":"Place flour in a shallow bowl."},{"recipe_directions":"Heat vegetable shortening in a large skillet until very hot."},{"recipe_directions":"Roll mushrooms in flour and tap off excess; gently lay mushrooms in the hot shortening."},{"recipe_directions":"Pan-fry until golden brown and flour coating is crisp, 5 to 8 minutes, turning often. Drain morels on paper towels, salt to taste, and enjoy your treasures!"},{"recipe_directions":"The nutrition data for this recipe includes the full amount of the flour. The actual amount of the flour consumed will vary. We have determined the nutritional value of shortening for frying based on a retention value of 10% after cooking. The exact amount will vary depending on cooking time and temperature, ingredient density, and the specific type of shortening used."}]</t>
         </is>
       </c>
-      <c r="J6" s="1" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"}]</t>
         </is>
       </c>
-      <c r="K6" s="1" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"185\nCalories\n\n\n5g \nFat\n\n\n29g \nCarbs\n\n\n6g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1" t="inlineStr">
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>1699658378-6</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1321/healthy-recipes/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D7" s="1" t="inlineStr">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1321/healthy-recipes/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/0Lc0CgdNLwKukyQcZX4RwVfvjg4=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1034010-dcdfd0848ff04721bd7a1df79b498dde.jpg"
@@ -466,59 +791,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E7" s="1" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/233685/sweet-bell-pepper-rice/</t>
         </is>
       </c>
-      <c r="F7" s="1" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Sweet Bell Pepper Rice</t>
         </is>
       </c>
-      <c r="G7" s="1" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n35 mins\n\n\nTotal Time:\n50 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H7" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cups water\n\n\n1 cup long-grain rice\n\n\n1 tablespoon olive oil\n\n\n1 small sweet onion, finely chopped\n\n\n3 cloves garlic, minced\n\n\n1 small green bell pepper, chopped\n\n\n1 small red bell pepper, chopped\n\n\n1 teaspoon dried basil\n\n\n1 teaspoon dried oregano\n\n\n½ teaspoon ground black pepper\n\n\n1 tiny pinch salt\n\n\n1 splash dry white wine\n\n\n1 tablespoon grated Parmesan cheese (Optional)"}]</t>
-        </is>
-      </c>
-      <c r="I7" s="1" t="inlineStr">
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups water\n\n\n1 cup long-grain rice\n\n\n1 tablespoon olive oil\n\n\n1 small sweet onion, finely chopped\n\n\n3 cloves garlic, minced\n\n\n1 small green bell pepper, chopped\n\n\n1 small red bell pepper, chopped\n\n\n1 teaspoon dried basil\n\n\n1 teaspoon dried oregano\n\n\n½ teaspoon ground black pepper\n\n\n1 tiny pinch salt\n\n\n1 splash dry white wine\n\n\n1 tablespoon grated Parmesan cheese (Optional)'}]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Bring water and rice to a boil in a saucepan. Reduce heat to medium-low, cover, and simmer until rice is tender and liquid is absorbed, 20 to 25 minutes."},{"recipe_directions":"Heat olive oil in a large skillet over medium-high heat. Cook and stir onion in hot oil until soft, about 3 minutes. Stir in garlic and continue cooking until onion is translucent, 2 to 3 minutes more. Add bell peppers; cook, stirring occasionally, until peppers are tender, about 5 minutes. Season with basil, oregano, black pepper, and salt."},{"recipe_directions":"Pour wine into the skillet and reduce heat to medium-low. Simmer until liquid is reduced, about 5 minutes. Stir in cooked rice until well combined with vegetables. Top with Parmesan cheese to serve."}]</t>
         </is>
       </c>
-      <c r="J7" s="1" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Rice Side Dish Recipes"}]</t>
         </is>
       </c>
-      <c r="K7" s="1" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"238\nCalories\n\n\n4g \nFat\n\n\n42g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1" t="inlineStr">
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t>1699658384-7</t>
         </is>
       </c>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1321/healthy-recipes/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D8" s="1" t="inlineStr">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1321/healthy-recipes/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/jlfRoWGWODbSmLw9NBR-nQ1Ii9U=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/4428747-66387bdad9624f3f86879e33c041ad76.jpg"
@@ -531,59 +852,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E8" s="1" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/223112/first-baby-food-peas/</t>
         </is>
       </c>
-      <c r="F8" s="1" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>First Baby Food: Peas</t>
         </is>
       </c>
-      <c r="G8" s="1" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n15 mins\n\n\nAdditional Time:\n 2 hrs\n\n\nTotal Time:\n 2 hrs 20 mins\n\n\nServings:\n12"}]</t>
         </is>
       </c>
-      <c r="H8" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3 cups frozen peas\n\n\n½ cup breast milk"}]</t>
-        </is>
-      </c>
-      <c r="I8" s="1" t="inlineStr">
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 cups frozen peas\n\n\n½ cup breast milk'}]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place a steamer insert into a saucepan and fill with water to just below the bottom of the steamer. Bring water to a boil. Add peas, cover, and steam until tender, about 15 minutes."},{"recipe_directions":"Place peas and breast milk in a blender or food processor; puree until creamy. Strain mixture through a fine-mesh sieve to remove any lumps."},{"recipe_directions":"Spread pea mixture into an ice cube tray; cover with plastic wrap and freeze until solid, 2 to 3 hours. Transfer frozen cubes to a resealable plastic bag and store in the freezer."},{"recipe_directions":"To serve, heat cubes in the microwave for about 30 seconds until warm but not hot. Stir thoroughly."},{"recipe_directions":"You can use fresh peas instead of frozen ones if you have them. You can also substitute formula or water for breast milk."},{"recipe_directions":"Store frozen cubes in the freezer for up to 2 months."}]</t>
         </is>
       </c>
-      <c r="J8" s="1" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Green Peas"}]</t>
         </is>
       </c>
-      <c r="K8" s="1" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"47\nCalories\n\n\n1g \nFat\n\n\n8g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1" t="inlineStr">
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>1699658392-8</t>
         </is>
       </c>
-      <c r="B9" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1321/healthy-recipes/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C9" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D9" s="1" t="inlineStr">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1321/healthy-recipes/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Wpr9Rsici1TGigyhrg88GU9LZkw=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1511x0:1513x2):format(webp)/9217623-48afaf75999a435ab818a3aa09ca5c81.jpg"
@@ -596,59 +913,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E9" s="1" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/231828/jamaican-cabbage/</t>
         </is>
       </c>
-      <c r="F9" s="1" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Jamaican Cabbage</t>
         </is>
       </c>
-      <c r="G9" s="1" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n40 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H9" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 head cabbage\n\n\n2 tablespoons olive oil, or as needed\n\n\n1 small onion, thinly sliced\n\n\n½  chopped green bell pepper\n\n\n1  green onion, sliced\n\n\n1  whole Scotch bonnet chile pepper\n\n\n2 sprigs fresh thyme\n\n\n1 teaspoon salt (Optional)\n\n\n1 cup shredded carrots\n\n\n¼ cup white vinegar\n\n\n2 tablespoons white sugar"}]</t>
-        </is>
-      </c>
-      <c r="I9" s="1" t="inlineStr">
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 head cabbage\n\n\n2 tablespoons olive oil, or as needed\n\n\n1 small onion, thinly sliced\n\n\n½  chopped green bell pepper\n\n\n1  green onion, sliced\n\n\n1  whole Scotch bonnet chile pepper\n\n\n2 sprigs fresh thyme\n\n\n1 teaspoon salt (Optional)\n\n\n1 cup shredded carrots\n\n\n¼ cup white vinegar\n\n\n2 tablespoons white sugar'}]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Peel tough outer leaves from cabbage. Core the head and shred cabbage; set aside."},{"recipe_directions":"Heat olive oil in a large skillet over medium-high heat; add onion, bell pepper, and green onion. Cook and stir vegetables until softened, about 5 minutes. Mix in Scotch bonnet pepper, thyme, and salt."},{"recipe_directions":"Stir cabbage and carrots into onion mixture until thoroughly combined. Cover the skillet and reduce heat to medium-low. Cook, stirring occasionally, until cabbage starts to soften, about 10 minutes."},{"recipe_directions":"Stir in vinegar and sugar. Cook, uncovered, stirring occasionally, until cabbage is tender, about 3 more minutes. Discard Scotch bonnet pepper and thyme before serving."}]</t>
         </is>
       </c>
-      <c r="J9" s="1" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Cabbage"}]</t>
         </is>
       </c>
-      <c r="K9" s="1" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"121\nCalories\n\n\n5g \nFat\n\n\n19g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>1699658398-9</t>
         </is>
       </c>
-      <c r="B10" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1321/healthy-recipes/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C10" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D10" s="1" t="inlineStr">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1321/healthy-recipes/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Mx6zdvYO2ssGK6v0FXPV3kkqcek=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/363608-quinoa-side-dish-Alberta-Rose-1x1-1-94d23b8bf3b645b2a9402f85cb7394db.jpg"
@@ -662,59 +975,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E10" s="1" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/29915/quinoa-side-dish/</t>
         </is>
       </c>
-      <c r="F10" s="1" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Quinoa Side Dish</t>
         </is>
       </c>
-      <c r="G10" s="1" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n35 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H10" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 tablespoon butter\n\n\n1 cup uncooked quinoa\n\n\n2 cups vegetable broth\n\n\n2 teaspoons chopped garlic\n\n\n2 tablespoons chopped fresh parsley\n\n\n½ tablespoon chopped fresh thyme\n\n\n¼ teaspoon salt\n\n\n1 small onion, finely chopped\n\n\n1 dash fresh lemon juice (Optional)"}]</t>
-        </is>
-      </c>
-      <c r="I10" s="1" t="inlineStr">
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 tablespoon butter\n\n\n1 cup uncooked quinoa\n\n\n2 cups vegetable broth\n\n\n2 teaspoons chopped garlic\n\n\n2 tablespoons chopped fresh parsley\n\n\n½ tablespoon chopped fresh thyme\n\n\n¼ teaspoon salt\n\n\n1 small onion, finely chopped\n\n\n1 dash fresh lemon juice (Optional)'}]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Melt butter in a saucepan over medium heat. Add quinoa and toast, stirring occasionally, until lightly browned, about 5 minutes. Stir in broth and bring to a boil. Reduce the heat, cover, and simmer until tender, about 15 minutes."},{"recipe_directions":"Remove from the heat and transfer to a bowl. Stir in garlic, parsley, thyme, salt, and onion until combined. Sprinkle lemon juice over top."},{"recipe_directions":"Please note differences in ingredient amounts and total time when following the magazine version of this recipe."}]</t>
         </is>
       </c>
-      <c r="J10" s="1" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Grain Side Dish Recipes"}]</t>
         </is>
       </c>
-      <c r="K10" s="1" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"207\nCalories\n\n\n6g \nFat\n\n\n32g \nCarbs\n\n\n7g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>1699658403-10</t>
         </is>
       </c>
-      <c r="B11" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1321/healthy-recipes/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C11" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D11" s="1" t="inlineStr">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1321/healthy-recipes/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/QBsDzyALhMH175Rrs5WDEtUY8yM=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1046676-spiced-slow-cooker-applesauce-NERDBOX-4x3-1-60881fed06964230acd0b8864e20c3c8.jpg"
@@ -728,59 +1037,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E11" s="1" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/149218/spiced-slow-cooker-applesauce/</t>
         </is>
       </c>
-      <c r="F11" s="1" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>Slow Cooker Applesauce</t>
         </is>
       </c>
-      <c r="G11" s="1" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n 6 hrs 30 mins\n\n\nTotal Time:\n 6 hrs 40 mins\n\n\nServings:\n8"}]</t>
         </is>
       </c>
-      <c r="H11" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"8  apples - peeled, cored, and thinly sliced\n\n\n½ cup water\n\n\n¾ cup packed brown sugar\n\n\n½ teaspoon pumpkin pie spice"}]</t>
-        </is>
-      </c>
-      <c r="I11" s="1" t="inlineStr">
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '8  apples - peeled, cored, and thinly sliced\n\n\n½ cup water\n\n\n¾ cup packed brown sugar\n\n\n½ teaspoon pumpkin pie spice'}]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine apples and water in a slow cooker; cook on Low for 6 to 8 hours. Stir in brown sugar and pumpkin pie spice; continue cooking another 30 minutes."}]</t>
         </is>
       </c>
-      <c r="J11" s="1" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Applesauce Recipes"}]</t>
         </is>
       </c>
-      <c r="K11" s="1" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"151\nCalories\n\n\n0g \nFat\n\n\n39g \nCarbs\n\n\n0g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="1" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>1699658410-11</t>
         </is>
       </c>
-      <c r="B12" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1321/healthy-recipes/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C12" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D12" s="1" t="inlineStr">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1321/healthy-recipes/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/htz1wMj4sW_bi6C-nkWyxAkCnWw=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/406075-fdcd025744d444e88280c7f2f3f32466.jpg"
@@ -793,59 +1098,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E12" s="1" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/14056/copper-penny/</t>
         </is>
       </c>
-      <c r="F12" s="1" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>Copper Pennies</t>
         </is>
       </c>
-      <c r="G12" s="1" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n15 mins\n\n\nAdditional Time:\n 8 hrs\n\n\nTotal Time:\n 8 hrs 25 mins\n\n\nServings:\n5"}]</t>
         </is>
       </c>
-      <c r="H12" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (10.5 ounce) can condensed tomato soup\n\n\n⅔ cup white sugar\n\n\n½ cup distilled white vinegar\n\n\n⅓ cup vegetable oil\n\n\n2 pounds carrots, sliced\n\n\n1 medium onion, chopped\n\n\n1 medium green bell pepper, chopped\n\n\n1 stalk celery, chopped"}]</t>
-        </is>
-      </c>
-      <c r="I12" s="1" t="inlineStr">
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (10.5 ounce) can condensed tomato soup\n\n\n⅔ cup white sugar\n\n\n½ cup distilled white vinegar\n\n\n⅓ cup vegetable oil\n\n\n2 pounds carrots, sliced\n\n\n1 medium onion, chopped\n\n\n1 medium green bell pepper, chopped\n\n\n1 stalk celery, chopped'}]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Bring condensed soup, sugar, vinegar, and oil to a boil in a saucepan. Stir well, remove from the heat, and let cool until needed."},{"recipe_directions":"At the same time, bring a large pot of water to a boil; add carrots and boil until just tender, about 10 minutes."},{"recipe_directions":"Drain carrots and transfer to a mixing bowl. Add onion, bell pepper, and celery. Pour soup mixture over vegetables and stir until coated. Cover and refrigerate, 8 hours to overnight, before serving."}]</t>
         </is>
       </c>
-      <c r="J12" s="1" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Vegetable Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K12" s="1" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"351\nCalories\n\n\n15g \nFat\n\n\n56g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="1" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>1699658417-12</t>
         </is>
       </c>
-      <c r="B13" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1321/healthy-recipes/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C13" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D13" s="1" t="inlineStr">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1321/healthy-recipes/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/2aONDOS65fOWR3ncPuN_M0gIG1g=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/533795-69b188d969e74847a2279c303fb43260.jpg"
@@ -858,59 +1159,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E13" s="1" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/18244/baked-beans-i/</t>
         </is>
       </c>
-      <c r="F13" s="1" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>Super Easy Baked Beans</t>
         </is>
       </c>
-      <c r="G13" s="1" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n45 mins\n\n\nTotal Time:\n50 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H13" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (29 ounce) can baked beans with pork\n\n\n½ cup packed brown sugar\n\n\n½ cup ketchup\n\n\n1 tablespoon Worcestershire sauce"}]</t>
-        </is>
-      </c>
-      <c r="I13" s="1" t="inlineStr">
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (29 ounce) can baked beans with pork\n\n\n½ cup packed brown sugar\n\n\n½ cup ketchup\n\n\n1 tablespoon Worcestershire sauce'}]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C)."},{"recipe_directions":"Stir baked beans, brown sugar, ketchup, and Worcestershire sauce together in a casserole dish."},{"recipe_directions":"Bake, covered, in the preheated oven until hot and bubbly, about 45 minutes."}]</t>
         </is>
       </c>
-      <c r="J13" s="1" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Beans and Peas"},{"recipe_tags":"Baked Bean Recipes"}]</t>
         </is>
       </c>
-      <c r="K13" s="1" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"261\nCalories\n\n\n2g \nFat\n\n\n54g \nCarbs\n\n\n7g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="1" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>1699658424-13</t>
         </is>
       </c>
-      <c r="B14" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1321/healthy-recipes/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C14" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D14" s="1" t="inlineStr">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1321/healthy-recipes/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/6OvQdc9BOMlA3wSI-sz281jV3Vs=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1480605-27addea95da74cef827aa150e7cd4857.jpg"
@@ -923,59 +1220,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E14" s="1" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/214934/grilled-corn-salad/</t>
         </is>
       </c>
-      <c r="F14" s="1" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>Grilled Corn Salad</t>
         </is>
       </c>
-      <c r="G14" s="1" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n10 mins\n\n\nAdditional Time:\n35 mins\n\n\nTotal Time:\n 1 hr 5 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H14" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"6 ears freshly shucked corn\n\n\n1 medium green bell pepper, diced\n\n\n2 medium Roma (plum) tomatoes, diced\n\n\n¼ cup diced red onion\n\n\n½ bunch fresh cilantro, chopped, or more to taste\n\n\n2 teaspoons olive oil, or to taste\n\n\n  salt and ground black pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I14" s="1" t="inlineStr">
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '6 ears freshly shucked corn\n\n\n1 medium green bell pepper, diced\n\n\n2 medium Roma (plum) tomatoes, diced\n\n\n¼ cup diced red onion\n\n\n½ bunch fresh cilantro, chopped, or more to taste\n\n\n2 teaspoons olive oil, or to taste\n\n\n  salt and ground black pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat an outdoor grill for medium heat and lightly oil the grate."},{"recipe_directions":"Roast corn on the preheated grill, turning occasionally, until tender and specks of black appear, about 10 minutes. Remove from the grill and let sit until just cool enough to handle, 5 to 10 minutes."},{"recipe_directions":"Holding a corn cob over a large bowl, use a knife to carefully slice warm kernels directly into the bowl; discard cob. Repeat with remaining corn."},{"recipe_directions":"Add bell pepper, tomatoes, onion, cilantro, olive oil, salt, and pepper; toss until evenly mixed. Let sit until flavors have blended, at least 30 minutes."}]</t>
         </is>
       </c>
-      <c r="J14" s="1" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Vegetable Salad Recipes"},{"recipe_tags":"Corn Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K14" s="1" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"103\nCalories\n\n\n3g \nFat\n\n\n20g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="1" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>1699658433-14</t>
         </is>
       </c>
-      <c r="B15" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1321/healthy-recipes/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C15" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D15" s="1" t="inlineStr">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1321/healthy-recipes/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/N77YA9wThgTVocqIPwvDc0bJeyM=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/6494196-cavatelli-and-broccoli-Melissa-Scheider-1x1-1-764c082fa2d54a9a90d180a76941be16.jpg"
@@ -989,59 +1282,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E15" s="1" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/11695/cavatelli-and-broccoli/</t>
         </is>
       </c>
-      <c r="F15" s="1" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>Cavatelli and Broccoli</t>
         </is>
       </c>
-      <c r="G15" s="1" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n25 mins\n\n\nTotal Time:\n35 mins\n\n\nServings:\n12"}]</t>
         </is>
       </c>
-      <c r="H15" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3 heads fresh broccoli, cut into florets\n\n\n1 ½ pounds cavatelli pasta\n\n\n½ cup olive oil\n\n\n3 cloves garlic, minced\n\n\n1 teaspoon salt, or more to taste\n\n\n1 teaspoon crushed red pepper flakes\n\n\n2 tablespoons grated Parmesan cheese"}]</t>
-        </is>
-      </c>
-      <c r="I15" s="1" t="inlineStr">
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 heads fresh broccoli, cut into florets\n\n\n1 ½ pounds cavatelli pasta\n\n\n½ cup olive oil\n\n\n3 cloves garlic, minced\n\n\n1 teaspoon salt, or more to taste\n\n\n1 teaspoon crushed red pepper flakes\n\n\n2 tablespoons grated Parmesan cheese'}]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Bring a large pot of water to a boil. Cook broccoli in boiling water for about 5 minutes. Use a slotted spoon to remove broccoli to a large bowl and set aside."},{"recipe_directions":"Season boiling water in the same pot with salt. Cook cavatelli in boiling water until tender yet firm to the bite, 8 to 10 minutes. Drain and set aside."},{"recipe_directions":"Heat olive oil in a large skillet over medium heat. Sauté garlic in hot oil until lightly golden, being careful not to burn it. Add broccoli; cook, stirring occasionally, until tender yet crisp to the bite, about 10 minutes."},{"recipe_directions":"Add cooked cavatelli to the skillet; toss well with broccoli mixture until warmed through. Season with salt and hot pepper flakes. Serve with Parmesan cheese."}]</t>
         </is>
       </c>
-      <c r="J15" s="1" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Everyday Cooking"},{"recipe_tags":"Vegetarian"},{"recipe_tags":"Side Dishes"}]</t>
         </is>
       </c>
-      <c r="K15" s="1" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"317\nCalories\n\n\n10g \nFat\n\n\n48g \nCarbs\n\n\n10g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="1" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>1699658439-15</t>
         </is>
       </c>
-      <c r="B16" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1321/healthy-recipes/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C16" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D16" s="1" t="inlineStr">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1321/healthy-recipes/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/pCYw98fkLINpzvadqYlYxq0Qh5E=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/391627-1c7808110d4d42beaf30e828ec4a77bf.jpg"
@@ -1055,59 +1344,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E16" s="1" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/152937/ethiopian-cabbage-dish/</t>
         </is>
       </c>
-      <c r="F16" s="1" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>Ethiopian Cabbage Dish</t>
         </is>
       </c>
-      <c r="G16" s="1" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n40 mins\n\n\nTotal Time:\n 1 hr\n\n\nServings:\n5"}]</t>
         </is>
       </c>
-      <c r="H16" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"½ cup olive oil\n\n\n4 medium carrots, thinly sliced\n\n\n1 medium onion, thinly sliced\n\n\n½ head green cabbage, shredded\n\n\n1 teaspoon sea salt\n\n\n½ teaspoon ground black pepper\n\n\n½ teaspoon ground cumin, or to taste\n\n\n¼ teaspoon ground turmeric, or to taste\n\n\n5 medium potatoes, peeled and cut into 1-inch cubes"}]</t>
-        </is>
-      </c>
-      <c r="I16" s="1" t="inlineStr">
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '½ cup olive oil\n\n\n4 medium carrots, thinly sliced\n\n\n1 medium onion, thinly sliced\n\n\n½ head green cabbage, shredded\n\n\n1 teaspoon sea salt\n\n\n½ teaspoon ground black pepper\n\n\n½ teaspoon ground cumin, or to taste\n\n\n¼ teaspoon ground turmeric, or to taste\n\n\n5 medium potatoes, peeled and cut into 1-inch cubes'}]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat olive oil in a skillet over medium heat. Add carrots and onion; cook and stir until beginning to soften, about 5 minutes. Stir in cabbage, salt, pepper, cumin, and turmeric; cook for 15 to 20 minutes."},{"recipe_directions":"Add potatoes; reduce heat to medium-low, cover, and cook until potatoes are soft, about 20 minutes."}]</t>
         </is>
       </c>
-      <c r="J16" s="1" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Cabbage"}]</t>
         </is>
       </c>
-      <c r="K16" s="1" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"407\nCalories\n\n\n22g \nFat\n\n\n50g \nCarbs\n\n\n7g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="1" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>1699658445-16</t>
         </is>
       </c>
-      <c r="B17" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1321/healthy-recipes/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C17" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D17" s="1" t="inlineStr">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1321/healthy-recipes/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/XhBgUCWMv0iw_BEs3qpdSmxQVkU=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/5514268-quick-chinese-style-vermicelli-rice-noodles-jrj27-4x3-1-9ee25374fba347e0bfb5ffbea8461a8e.jpg"
@@ -1121,59 +1406,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E17" s="1" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/41761/quick-chinese-style-vermicelli-rice-noodles/</t>
         </is>
       </c>
-      <c r="F17" s="1" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>Quick Chinese-Style Vermicelli (Rice Noodles)</t>
         </is>
       </c>
-      <c r="G17" s="1" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H17" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (8 ounce) package dried rice noodles\n\n\n2 tablespoons vegetable oil\n\n\n1 clove garlic, minced\n\n\n1 tablespoon soy sauce\n\n\n½ tablespoon chili sauce\n\n\n  salt and pepper to taste\n\n\n1  green onion, chopped"}]</t>
-        </is>
-      </c>
-      <c r="I17" s="1" t="inlineStr">
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (8 ounce) package dried rice noodles\n\n\n2 tablespoons vegetable oil\n\n\n1 clove garlic, minced\n\n\n1 tablespoon soy sauce\n\n\n½ tablespoon chili sauce\n\n\n  salt and pepper to taste\n\n\n1  green onion, chopped'}]</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Fill a large pot with water and bring to a rolling boil; stir in rice noodles and return to a boil. Cook until al dente, 2 to 3 minutes; try not to overcook as they will become mushy. Drain."},{"recipe_directions":"Heat oil in a large skillet over medium heat. Add garlic and sauté until tender. Stir in noodles; season with soy sauce, chili sauce, salt, and pepper. Sprinkle with chopped green onion."}]</t>
         </is>
       </c>
-      <c r="J17" s="1" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"}]</t>
         </is>
       </c>
-      <c r="K17" s="1" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"271\nCalories\n\n\n7g \nFat\n\n\n48g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="1" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>1699658453-17</t>
         </is>
       </c>
-      <c r="B18" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1321/healthy-recipes/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C18" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D18" s="1" t="inlineStr">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1321/healthy-recipes/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/_oZ5SwN5a48DVzuiS9SgGdYh9KM=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1309564-bd1b5ed99b5041f08e3804aa8d4bed46.jpg"
@@ -1186,59 +1467,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E18" s="1" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/238489/copycat-chipotle-cilantro-lime-brown-rice/</t>
         </is>
       </c>
-      <c r="F18" s="1" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>Copycat Chipotle Cilantro Lime Brown Rice</t>
         </is>
       </c>
-      <c r="G18" s="1" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n40 mins\n\n\nAdditional Time:\n5 mins\n\n\nTotal Time:\n55 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H18" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"4 cups water\n\n\n2 cups brown rice\n\n\n1  lime, juiced\n\n\n1 teaspoon minced garlic\n\n\n1 teaspoon extra-virgin olive oil\n\n\n1 teaspoon sea salt\n\n\n½ cup chopped fresh cilantro"}]</t>
-        </is>
-      </c>
-      <c r="I18" s="1" t="inlineStr">
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4 cups water\n\n\n2 cups brown rice\n\n\n1  lime, juiced\n\n\n1 teaspoon minced garlic\n\n\n1 teaspoon extra-virgin olive oil\n\n\n1 teaspoon sea salt\n\n\n½ cup chopped fresh cilantro'}]</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Bring water and brown rice to a boil in a saucepan. Reduce heat to medium-low, cover, and simmer until rice is tender and liquid has been absorbed, 30 to 45 minutes."},{"recipe_directions":"Transfer cooked rice to a large serving bowl and cool slightly, 5 to 7 minutes."},{"recipe_directions":"Whisk together lime juice, garlic, olive oil, and salt in a small bowl; stir into rice. Fold in cilantro."}]</t>
         </is>
       </c>
-      <c r="J18" s="1" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Rice Side Dish Recipes"}]</t>
         </is>
       </c>
-      <c r="K18" s="1" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"359\nCalories\n\n\n4g \nFat\n\n\n74g \nCarbs\n\n\n7g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="1" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>1699658458-18</t>
         </is>
       </c>
-      <c r="B19" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1321/healthy-recipes/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C19" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D19" s="1" t="inlineStr">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1321/healthy-recipes/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/HUHmO3e_1IJFGMKSFFzOQYOnivk=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1058985-75958e05dba4470e93b441402b424b48.jpg"
@@ -1251,59 +1528,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E19" s="1" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/232360/easy-southern-fried-green-tomatoes/</t>
         </is>
       </c>
-      <c r="F19" s="1" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>Easy Southern Fried Green Tomatoes</t>
         </is>
       </c>
-      <c r="G19" s="1" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n25 mins\n\n\nTotal Time:\n40 mins\n\n\nServings:\n8"}]</t>
         </is>
       </c>
-      <c r="H19" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup all-purpose flour\n\n\n2 large eggs\n\n\n2 tablespoons water\n\n\n1 cup yellow cornmeal\n\n\n  sea salt and ground black pepper to taste\n\n\n2 pounds green tomatoes, sliced\n\n\n1 cup canola oil for frying, or as needed"}]</t>
-        </is>
-      </c>
-      <c r="I19" s="1" t="inlineStr">
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup all-purpose flour\n\n\n2 large eggs\n\n\n2 tablespoons water\n\n\n1 cup yellow cornmeal\n\n\n  sea salt and ground black pepper to taste\n\n\n2 pounds green tomatoes, sliced\n\n\n1 cup canola oil for frying, or as needed'}]</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Line a baking sheet with waxed paper."},{"recipe_directions":"Place flour into a shallow bowl. Whisk eggs and water together in a second shallow bowl. Whisk cornmeal, salt, and pepper together in a third shallow bowl."},{"recipe_directions":"Dip one tomato slice into flour, then dip into egg mixture. Press tomato into cornmeal mixture, then shake off excess and place onto the prepared baking sheet. Repeat with remaining tomato slices, arranging them in a single layer on the baking sheet."},{"recipe_directions":"Heat 1/4 inch canola oil in a large skillet over medium heat until shimmering. Working in batches, fry tomatoes in hot oil until golden and crisp, 3 to 4 minutes per side. Drain on paper towel-lined plates."},{"recipe_directions":"Nutrition data for this recipe includes the full amount of breading ingredients. The actual amount of breading consumed will vary. We have determined the nutritional value of oil for frying based on a retention value of 10% after cooking. The exact amount will vary depending on cooking time and temperature, ingredient density, and specific type of oil used."}]</t>
         </is>
       </c>
-      <c r="J19" s="1" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Tomatoes"},{"recipe_tags":"Fried Green Tomato Recipes"}]</t>
         </is>
       </c>
-      <c r="K19" s="1" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"189\nCalories\n\n\n5g \nFat\n\n\n32g \nCarbs\n\n\n6g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="1" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>1699658465-19</t>
         </is>
       </c>
-      <c r="B20" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1321/healthy-recipes/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C20" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D20" s="1" t="inlineStr">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1321/healthy-recipes/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/ndZBvcz8CfeZtsvkiuLPGYwm6jI=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/851205-a7f730fa3acd4e36ab93cc25641d7055.jpg"
@@ -1316,59 +1589,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E20" s="1" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/144529/beets-on-the-grill/</t>
         </is>
       </c>
-      <c r="F20" s="1" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>Beets on the Grill</t>
         </is>
       </c>
-      <c r="G20" s="1" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n30 mins\n\n\nAdditional Time:\n5 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n2"}]</t>
         </is>
       </c>
-      <c r="H20" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"cooking spray\n\n\n6  beets, scrubbed\n\n\n2 tablespoons butter\n\n\n  salt and pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I20" s="1" t="inlineStr">
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': 'cooking spray\n\n\n6  beets, scrubbed\n\n\n2 tablespoons butter\n\n\n  salt and pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat an outdoor grill for high heat."},{"recipe_directions":"Coat one side of a large piece of aluminum foil with cooking spray. Place beets and butter on foil; season with salt and pepper. Wrap foil over beets."},{"recipe_directions":"Place packet on the grill grate. Cook until beets are very tender, about 30 minutes."},{"recipe_directions":"Allow beets to cool before serving, about 5 minutes."},{"recipe_directions":""}]</t>
         </is>
       </c>
-      <c r="J20" s="1" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"}]</t>
         </is>
       </c>
-      <c r="K20" s="1" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"208\nCalories\n\n\n12g \nFat\n\n\n24g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="1" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>1699658474-20</t>
         </is>
       </c>
-      <c r="B21" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1321/healthy-recipes/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C21" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D21" s="1" t="inlineStr">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1321/healthy-recipes/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/7fP7SrWQog1BSJ4eQGO39s6FpLI=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1935x1540:1937x1542):format(webp)/106584-campfire-foil-packs-ddmfs-056-4x3-4bac0ef1b66c40b986c3f1b0ddb111ff.jpg"
@@ -1382,59 +1651,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E21" s="1" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/106584/campfire-foil-packs/</t>
         </is>
       </c>
-      <c r="F21" s="1" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>Campfire Foil Packs</t>
         </is>
       </c>
-      <c r="G21" s="1" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n40 mins\n\n\nTotal Time:\n 1 hr 10 mins\n\n\nServings:\n4 \n\n\nYield:\n4 packets"}]</t>
         </is>
       </c>
-      <c r="H21" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 pound skinless, boneless chicken breast meat - cubed\n\n\n2  onions, diced\n\n\n1 (8 ounce) package sliced fresh mushrooms\n\n\n1  yellow bell pepper, seeded and sliced into strips\n\n\n1  red bell pepper, seeded and sliced into strips\n\n\n4 cloves garlic, sliced\n\n\n4 small potatoes, cubed\n\n\n¼ cup olive oil\n\n\n1  lemon, juiced"}]</t>
-        </is>
-      </c>
-      <c r="I21" s="1" t="inlineStr">
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 pound skinless, boneless chicken breast meat - cubed\n\n\n2  onions, diced\n\n\n1 (8 ounce) package sliced fresh mushrooms\n\n\n1  yellow bell pepper, seeded and sliced into strips\n\n\n1  red bell pepper, seeded and sliced into strips\n\n\n4 cloves garlic, sliced\n\n\n4 small potatoes, cubed\n\n\n¼ cup olive oil\n\n\n1  lemon, juiced'}]</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Gather all ingredients."},{"recipe_directions":"Build a campfire and allow the fire to burn until it has accumulated a bed of coals. Rake the coals into a flat bed on one side of the fire."},{"recipe_directions":"Combine chicken, onion, mushrooms, peppers, garlic, and potatoes in a large bowl or a large resealable plastic bag. Pour in olive oil and lemon juice and toss to coat."},{"recipe_directions":"Evenly divide the mixture between 4 large sheets of aluminum foil. Top each with another sheet of foil and roll up the edges tightly. Double wrap each packet with another sheet of foil."},{"recipe_directions":"Cook over the preheated coals until chicken is no longer pink in the center and the juices run clear, about 40 minutes. An instant-read thermometer inserted into the center should read at least 165 degrees F (74 degrees C)."}]</t>
         </is>
       </c>
-      <c r="J21" s="1" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"}]</t>
         </is>
       </c>
-      <c r="K21" s="1" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"437\nCalories\n\n\n16g \nFat\n\n\n44g \nCarbs\n\n\n33g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="1" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>1699658481-21</t>
         </is>
       </c>
-      <c r="B22" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1321/healthy-recipes/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C22" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D22" s="1" t="inlineStr">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1321/healthy-recipes/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/E3J-93CfidJd2iWIxrjXXfUo-1g=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3371828-c07a1e20031e45f3a0c64d86d0532ab4.jpg"
@@ -1447,59 +1712,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E22" s="1" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/18346/baked-scalloped-potatoes/</t>
         </is>
       </c>
-      <c r="F22" s="1" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>Baked Scalloped Potatoes</t>
         </is>
       </c>
-      <c r="G22" s="1" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n25 mins\n\n\nCook Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 25 mins\n\n\nServings:\n8"}]</t>
         </is>
       </c>
-      <c r="H22" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (10.5 ounce) can condensed cream of mushroom soup\n\n\n1 ¼ cups milk, or more as needed\n\n\n½ teaspoon ground black pepper\n\n\n6 large potatoes, peeled and sliced\n\n\n1 medium onion, diced"}]</t>
-        </is>
-      </c>
-      <c r="I22" s="1" t="inlineStr">
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (10.5 ounce) can condensed cream of mushroom soup\n\n\n1 ¼ cups milk, or more as needed\n\n\n½ teaspoon ground black pepper\n\n\n6 large potatoes, peeled and sliced\n\n\n1 medium onion, diced'}]</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 375 degrees F (190 degrees C). Grease a 2-quart casserole dish."},{"recipe_directions":"Whisk condensed soup, milk, and pepper together in a bowl."},{"recipe_directions":"Layer potatoes and onion in the prepared casserole dish. Pour soup mixture over top; it should almost cover potatoes and onion. If it doesn't, add more milk."},{"recipe_directions":"Cover and bake in the preheated 375 degrees F (190 degrees C) oven until potatoes are tender, about 1 hour, stirring halfway through."},{"recipe_directions":"You can use any type of milk, but don't use cream or half-and-half."}]</t>
         </is>
       </c>
-      <c r="J22" s="1" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Potato"},{"recipe_tags":"Scalloped Potato Recipes"}]</t>
         </is>
       </c>
-      <c r="K22" s="1" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"234\nCalories\n\n\n3g \nFat\n\n\n41g \nCarbs\n\n\n9g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="1" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>1699658488-22</t>
         </is>
       </c>
-      <c r="B23" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1321/healthy-recipes/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C23" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D23" s="1" t="inlineStr">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1321/healthy-recipes/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/WpG1lA2TrGRYJdrg6gbdqctkf7o=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/5136804-f48db394696347eba9287e42d497e1e7.jpg"
@@ -1512,59 +1773,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E23" s="1" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/73733/crab-ceviche/</t>
         </is>
       </c>
-      <c r="F23" s="1" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>Crab Ceviche</t>
         </is>
       </c>
-      <c r="G23" s="1" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nAdditional Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 30 mins\n\n\nServings:\n8"}]</t>
         </is>
       </c>
-      <c r="H23" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (8 ounce) package imitation crabmeat, flaked\n\n\n1 tablespoon olive oil\n\n\n2 large tomatoes, chopped\n\n\n3  serrano peppers, finely chopped\n\n\n1  red onion, finely chopped\n\n\n½ bunch cilantro, chopped\n\n\n2  limes, juiced\n\n\n  salt and pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I23" s="1" t="inlineStr">
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (8 ounce) package imitation crabmeat, flaked\n\n\n1 tablespoon olive oil\n\n\n2 large tomatoes, chopped\n\n\n3  serrano peppers, finely chopped\n\n\n1  red onion, finely chopped\n\n\n½ bunch cilantro, chopped\n\n\n2  limes, juiced\n\n\n  salt and pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place imitation crab into a large glass or porcelain bowl; stir in olive oil until well coated. Stir in tomatoes, serrano peppers, onion, and cilantro. Squeeze lime juice on top and mix well. Season generously with salt and pepper. Cover and refrigerate for about 1 hour before serving."}]</t>
         </is>
       </c>
-      <c r="J23" s="1" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Seafood Salad Recipes"},{"recipe_tags":"Crab Salad Recipes"}]</t>
         </is>
       </c>
-      <c r="K23" s="1" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"62\nCalories\n\n\n2g \nFat\n\n\n9g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="1" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>1699658496-23</t>
         </is>
       </c>
-      <c r="B24" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1321/healthy-recipes/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C24" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D24" s="1" t="inlineStr">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1321/healthy-recipes/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/xej5hCgGNlmpKJnrbjyx3bT3kiI=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1898x1495:1900x1497):format(webp)/165649roasted-vegetable-medley-DDMFS-001-4x3-f9c51738278e4c92aa53d51250f4ed10.jpg"
@@ -1578,59 +1835,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E24" s="1" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/165649/roasted-vegetable-medley/</t>
         </is>
       </c>
-      <c r="F24" s="1" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>Roasted Vegetable Medley</t>
         </is>
       </c>
-      <c r="G24" s="1" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n25 mins\n\n\nCook Time:\n 1 hr\n\n\nAdditional Time:\n30 mins\n\n\nTotal Time:\n 1 hr 55 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H24" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 tablespoons olive oil, divided\n\n\n1 large yam, peeled and cut into 1 inch pieces\n\n\n1 large parsnip, peeled and cut into 1 inch pieces\n\n\n1 cup baby carrots\n\n\n1  zucchini, cut into 1 inch slices\n\n\n1 bunch fresh asparagus, trimmed and cut into 1 inch pieces\n\n\n½ cup roasted red peppers, cut into 1-inch pieces\n\n\n¼ cup chopped fresh basil\n\n\n2 cloves garlic, minced\n\n\n½ teaspoon kosher salt\n\n\n½ teaspoon ground black pepper"}]</t>
-        </is>
-      </c>
-      <c r="I24" s="1" t="inlineStr">
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 tablespoons olive oil, divided\n\n\n1 large yam, peeled and cut into 1 inch pieces\n\n\n1 large parsnip, peeled and cut into 1 inch pieces\n\n\n1 cup baby carrots\n\n\n1  zucchini, cut into 1 inch slices\n\n\n1 bunch fresh asparagus, trimmed and cut into 1 inch pieces\n\n\n½ cup roasted red peppers, cut into 1-inch pieces\n\n\n¼ cup chopped fresh basil\n\n\n2 cloves garlic, minced\n\n\n½ teaspoon kosher salt\n\n\n½ teaspoon ground black pepper'}]</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Gather all ingredients. Preheat the oven to 425 degrees F (220 degrees C). Grease two baking sheets with 1/2 tablespoon olive oil each."},{"recipe_directions":"Place yam, parsnip, and carrots onto the baking sheets."},{"recipe_directions":"Bake in the preheated oven for 30 minutes, then add zucchini and asparagus, and drizzle with remaining 1 tablespoon olive oil. Continue baking until all the vegetables are tender, about 30 minutes more."},{"recipe_directions":"Once tender, remove from the oven, and allow to cool for 30 minutes on the baking sheet."},{"recipe_directions":"Toss roasted peppers together with basil, garlic, salt, and pepper in a large bowl until combined."},{"recipe_directions":"Add the roasted vegetables, and toss to mix. Serve at room temperature or cold."}]</t>
         </is>
       </c>
-      <c r="J24" s="1" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Sweet Potatoes"}]</t>
         </is>
       </c>
-      <c r="K24" s="1" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"191\nCalories\n\n\n5g \nFat\n\n\n35g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="1" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>1699658503-24</t>
         </is>
       </c>
-      <c r="B25" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1321/healthy-recipes/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C25" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D25" s="1" t="inlineStr">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1321/healthy-recipes/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/RwZxLC-9h89i-CqZkFPwrnH3otU=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3843799-70a6a9e44e5240cdbb121f12ac3c9761.jpg"
@@ -1643,59 +1896,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E25" s="1" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/254978/jersey-fresh-stewed-tomatoes/</t>
         </is>
       </c>
-      <c r="F25" s="1" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>Jersey Fresh Stewed Tomatoes</t>
         </is>
       </c>
-      <c r="G25" s="1" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n40 mins\n\n\nServings:\n8"}]</t>
         </is>
       </c>
-      <c r="H25" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"6 large tomatoes - peeled, cored, and chopped\n\n\n¾ cup chopped green bell pepper\n\n\n½ cup chopped sweet onion\n\n\n½ cup chopped celery\n\n\n1 teaspoon white sugar\n\n\n½ teaspoon salt\n\n\n¼ teaspoon dried oregano\n\n\n¼ teaspoon dried basil\n\n\n⅛ teaspoon black pepper\n\n\n1 tablespoon water\n\n\n1 ½ teaspoons cornstarch"}]</t>
-        </is>
-      </c>
-      <c r="I25" s="1" t="inlineStr">
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '6 large tomatoes - peeled, cored, and chopped\n\n\n¾ cup chopped green bell pepper\n\n\n½ cup chopped sweet onion\n\n\n½ cup chopped celery\n\n\n1 teaspoon white sugar\n\n\n½ teaspoon salt\n\n\n¼ teaspoon dried oregano\n\n\n¼ teaspoon dried basil\n\n\n⅛ teaspoon black pepper\n\n\n1 tablespoon water\n\n\n1 ½ teaspoons cornstarch'}]</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Cook and stir tomatoes, bell pepper, onion, and celery in a large skillet over medium heat until fragrant, about 10 minutes. Reduce the heat and continue to cook until bell pepper and onion are soft, about 5 minutes. Stir in sugar, salt, oregano, basil, and pepper."},{"recipe_directions":"Whisk water and cornstarch together in a small bowl; stir into the skillet. Simmer tomato mixture until thickened, about 5 minutes."}]</t>
         </is>
       </c>
-      <c r="J25" s="1" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Tomatoes"}]</t>
         </is>
       </c>
-      <c r="K25" s="1" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"37\nCalories\n\n\n0g \nFat\n\n\n8g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="1" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>1699658511-25</t>
         </is>
       </c>
-      <c r="B26" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1321/healthy-recipes/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C26" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D26" s="1" t="inlineStr">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1321/healthy-recipes/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/mRD-sA-Jz_a0tMl_DLJfvazo1cA=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1092733-3044d24240554942910a95f92e44d164.jpg"
@@ -1708,59 +1957,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E26" s="1" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/236025/salt-and-pepper-skillet-fries/</t>
         </is>
       </c>
-      <c r="F26" s="1" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>Salt and Pepper Skillet Fries</t>
         </is>
       </c>
-      <c r="G26" s="1" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H26" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 tablespoons olive oil\n\n\n1 teaspoon butter\n\n\n3 large potatoes, sliced lengthwise into 1/2-inch circles and cut into 1/2-inch strips\n\n\n¼ teaspoon coarse sea salt\n\n\n¼ teaspoon cracked black pepper"}]</t>
-        </is>
-      </c>
-      <c r="I26" s="1" t="inlineStr">
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 tablespoons olive oil\n\n\n1 teaspoon butter\n\n\n3 large potatoes, sliced lengthwise into 1/2-inch circles and cut into 1/2-inch strips\n\n\n¼ teaspoon coarse sea salt\n\n\n¼ teaspoon cracked black pepper'}]</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat olive oil and butter in a skillet over medium heat."},{"recipe_directions":"Cook and stir potato strips in hot oil mixture until browned on all sides, 20 to 25 minutes."},{"recipe_directions":"Transfer fries to a paper towel-lined plate; season with sea salt and cracked black pepper."}]</t>
         </is>
       </c>
-      <c r="J26" s="1" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Fries Recipes"},{"recipe_tags":"French Fries Recipes"}]</t>
         </is>
       </c>
-      <c r="K26" s="1" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"282\nCalories\n\n\n8g \nFat\n\n\n48g \nCarbs\n\n\n6g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="1" t="inlineStr">
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>1699658518-26</t>
         </is>
       </c>
-      <c r="B27" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1321/healthy-recipes/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C27" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D27" s="1" t="inlineStr">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1321/healthy-recipes/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/39XR-8woBIGcYSHuz1sBEWmmJtg=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/222658-frozen-vegetable-stir-fry-4x3-1382-583b53fa0bcd4247920611ad431c14cb.jpg"
@@ -1774,59 +2019,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E27" s="1" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/222658/frozen-vegetable-stir-fry/</t>
         </is>
       </c>
-      <c r="F27" s="1" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>Frozen Vegetable Stir-Fry</t>
         </is>
       </c>
-      <c r="G27" s="1" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n5 mins\n\n\nTotal Time:\n10 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H27" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 tablespoons soy sauce\n\n\n1 tablespoon brown sugar\n\n\n2 teaspoons peanut butter\n\n\n2 teaspoons garlic powder\n\n\n2 teaspoons olive oil\n\n\n1 (16 ounce) package frozen mixed vegetables"}]</t>
-        </is>
-      </c>
-      <c r="I27" s="1" t="inlineStr">
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 tablespoons soy sauce\n\n\n1 tablespoon brown sugar\n\n\n2 teaspoons peanut butter\n\n\n2 teaspoons garlic powder\n\n\n2 teaspoons olive oil\n\n\n1 (16 ounce) package frozen mixed vegetables'}]</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine soy sauce, brown sugar, peanut butter, and garlic powder in a small bowl."},{"recipe_directions":"Heat oil in a large skillet over medium heat. Add frozen mixed vegetables; cook and stir until just tender, 5 to 7 minutes."},{"recipe_directions":"Remove from heat and fold in soy sauce mixture."}]</t>
         </is>
       </c>
-      <c r="J27" s="1" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"}]</t>
         </is>
       </c>
-      <c r="K27" s="1" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"88\nCalories\n\n\n3g \nFat\n\n\n14g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="1" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>1699658525-27</t>
         </is>
       </c>
-      <c r="B28" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1321/healthy-recipes/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C28" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D28" s="1" t="inlineStr">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1321/healthy-recipes/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/bg0Jh_nzTa0XfWVHSLMGKuIXOPI=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/217469-25cbea38258a45a8857f006ce0c6f4cf.jpg"
@@ -1839,59 +2080,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E28" s="1" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/104947/roasted-asparagus-and-mushrooms/</t>
         </is>
       </c>
-      <c r="F28" s="1" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>Roasted Asparagus and Mushrooms</t>
         </is>
       </c>
-      <c r="G28" s="1" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H28" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"nonstick cooking spray\n\n\n1 bunch fresh asparagus, trimmed\n\n\n½ pound fresh mushrooms, quartered\n\n\n2 teaspoons olive oil\n\n\n2 sprigs fresh rosemary, minced\n\n\n  kosher salt and freshly ground black pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I28" s="1" t="inlineStr">
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': 'nonstick cooking spray\n\n\n1 bunch fresh asparagus, trimmed\n\n\n½ pound fresh mushrooms, quartered\n\n\n2 teaspoons olive oil\n\n\n2 sprigs fresh rosemary, minced\n\n\n  kosher salt and freshly ground black pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 450 degrees F (230 degrees C). Lightly grease a baking tray with nonstick spray."},{"recipe_directions":"Place asparagus and mushrooms in a bowl. Drizzle with olive oil, then season with rosemary, salt, and pepper; toss well. Lay vegetables on the prepared tray in an even layer."},{"recipe_directions":"Roast in the preheated oven until asparagus is tender, about 15 minutes."}]</t>
         </is>
       </c>
-      <c r="J28" s="1" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Asparagus"},{"recipe_tags":"Baked"}]</t>
         </is>
       </c>
-      <c r="K28" s="1" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"38\nCalories\n\n\n2g \nFat\n\n\n4g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="1" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>1699658535-28</t>
         </is>
       </c>
-      <c r="B29" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1321/healthy-recipes/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C29" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D29" s="1" t="inlineStr">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1321/healthy-recipes/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/jdftWn1br-ugA7zWmafhgjW36LU=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/269912-70b3252c50e7490b896f4945bac3aefe.jpg"
@@ -1904,59 +2141,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E29" s="1" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/89195/zucchini-and-potato-bake/</t>
         </is>
       </c>
-      <c r="F29" s="1" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>Zucchini and Potato Bake</t>
         </is>
       </c>
-      <c r="G29" s="1" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 15 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H29" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"4 medium potatoes, peeled and cut into large chunks\n\n\n2 medium zucchini, quartered and cut into large pieces\n\n\n1 medium red bell pepper, seeded and chopped\n\n\n½ cup dry bread crumbs\n\n\n¼ cup olive oil\n\n\n1 clove garlic, sliced\n\n\n  paprika to taste\n\n\n  salt and ground black pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I29" s="1" t="inlineStr">
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4 medium potatoes, peeled and cut into large chunks\n\n\n2 medium zucchini, quartered and cut into large pieces\n\n\n1 medium red bell pepper, seeded and chopped\n\n\n½ cup dry bread crumbs\n\n\n¼ cup olive oil\n\n\n1 clove garlic, sliced\n\n\n  paprika to taste\n\n\n  salt and ground black pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 400 degrees F (200 degrees C)."},{"recipe_directions":"Toss together potatoes, zucchini, red bell pepper, bread crumbs, olive oil, and garlic in a medium baking pan. Season with paprika, salt, and pepper."},{"recipe_directions":"Bake in the preheated oven, stirring occasionally, until potatoes are tender and lightly brown, about 1 hour."}]</t>
         </is>
       </c>
-      <c r="J29" s="1" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Squash"},{"recipe_tags":"Zucchini"}]</t>
         </is>
       </c>
-      <c r="K29" s="1" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"243\nCalories\n\n\n10g \nFat\n\n\n35g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="1" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>1699658543-29</t>
         </is>
       </c>
-      <c r="B30" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1321/healthy-recipes/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C30" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D30" s="1" t="inlineStr">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1321/healthy-recipes/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/EOA111GyiaR7HiU7MBzcYcPJmvg=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1319x944:1321x946):format(webp)/142892-slow-cooker-spicy-black-eyed-peas-vat-2055-4x3-1-e28090640717455c9a94203d3d2f5859.jpg"
@@ -1970,59 +2203,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E30" s="1" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/142892/slow-cooker-spicy-black-eyed-peas/</t>
         </is>
       </c>
-      <c r="F30" s="1" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>Slow Cooker Spicy Black-Eyed Peas</t>
         </is>
       </c>
-      <c r="G30" s="1" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n 6 hrs\n\n\nTotal Time:\n 6 hrs 30 mins\n\n\nServings:\n10"}]</t>
         </is>
       </c>
-      <c r="H30" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"6 cups water\n\n\n1 cube chicken bouillon\n\n\n1 pound dried black-eyed peas, sorted and rinsed\n\n\n8 ounces diced ham\n\n\n4 slices bacon, chopped\n\n\n1  onion, diced\n\n\n1  red bell pepper, stemmed, seeded, and diced\n\n\n1  jalapeno chile, seeded and minced\n\n\n2 cloves garlic, diced\n\n\n1 ½ teaspoons cumin\n\n\n1 teaspoon ground black pepper\n\n\n½ teaspoon cayenne pepper\n\n\n  salt, to taste"}]</t>
-        </is>
-      </c>
-      <c r="I30" s="1" t="inlineStr">
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '6 cups water\n\n\n1 cube chicken bouillon\n\n\n1 pound dried black-eyed peas, sorted and rinsed\n\n\n8 ounces diced ham\n\n\n4 slices bacon, chopped\n\n\n1  onion, diced\n\n\n1  red bell pepper, stemmed, seeded, and diced\n\n\n1  jalapeno chile, seeded and minced\n\n\n2 cloves garlic, diced\n\n\n1 ½ teaspoons cumin\n\n\n1 teaspoon ground black pepper\n\n\n½ teaspoon cayenne pepper\n\n\n  salt, to taste'}]</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Gather all ingredients."},{"recipe_directions":"Pour water into a slow cooker; add bouillon cube and stir to dissolve."},{"recipe_directions":"Stir in black-eyed peas, ham, bacon, onion, bell pepper, jalapeño, garlic, cumin, black pepper, cayenne pepper, and salt."},{"recipe_directions":"Cover and cook on Low until beans are tender, 6 to 8 hours."},{"recipe_directions":"Serve hot and enjoy!"}]</t>
         </is>
       </c>
-      <c r="J30" s="1" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Beans and Peas"}]</t>
         </is>
       </c>
-      <c r="K30" s="1" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"199\nCalories\n\n\n3g \nFat\n\n\n30g \nCarbs\n\n\n14g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="1" t="inlineStr">
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>1699658551-30</t>
         </is>
       </c>
-      <c r="B31" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1321/healthy-recipes/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C31" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D31" s="1" t="inlineStr">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1321/healthy-recipes/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/D9SmJwlYm2PnR1Au1Ve3JLWh_Fg=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1533x0:1535x2):format(webp)/5006047-905340f080a44d17b6d0fce0fb591d4c.jpg"
@@ -2035,59 +2264,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E31" s="1" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/261107/easy-pressure-cooker-potatoes/</t>
         </is>
       </c>
-      <c r="F31" s="1" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>Easy Pressure Cooker Potatoes</t>
         </is>
       </c>
-      <c r="G31" s="1" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n10 mins\n\n\nAdditional Time:\n10 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n8"}]</t>
         </is>
       </c>
-      <c r="H31" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cups water\n\n\n8  russet potatoes, scrubbed"}]</t>
-        </is>
-      </c>
-      <c r="I31" s="1" t="inlineStr">
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups water\n\n\n8  russet potatoes, scrubbed'}]</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Pour water into the bottom of a pressure cooker (such as Presto). Place a trivet into the pressure cooker and turn the heat on high."},{"recipe_directions":"Place potatoes in a single layer in the pressure cooker and lock the lid. Cook over high heat until the pressure regulator reaches 15 psi, 5 to 10 minutes. Remove from heat. Allow pressure to drop naturally, 10 minutes. Unlock and remove lid."}]</t>
         </is>
       </c>
-      <c r="J31" s="1" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Potato"}]</t>
         </is>
       </c>
-      <c r="K31" s="1" t="inlineStr">
+      <c r="K31" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"224\nCalories\n\n\n0g \nFat\n\n\n51g \nCarbs\n\n\n6g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="1" t="inlineStr">
+    <row r="32">
+      <c r="A32" t="inlineStr">
         <is>
           <t>1699658558-31</t>
         </is>
       </c>
-      <c r="B32" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1321/healthy-recipes/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C32" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D32" s="1" t="inlineStr">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1321/healthy-recipes/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Asq8-tgFsRjJkaylByVfpV6IUEw=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3538002-3df1eaa60bb940cea21b5637541828a5.jpg"
@@ -2100,59 +2325,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E32" s="1" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/34615/easy-apple-coleslaw/</t>
         </is>
       </c>
-      <c r="F32" s="1" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>Easy Apple Slaw</t>
         </is>
       </c>
-      <c r="G32" s="1" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n25 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H32" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3 cups chopped cabbage\n\n\n1  unpeeled red apple, cored and chopped\n\n\n1  unpeeled Granny Smith apple, cored and chopped\n\n\n1  carrot, grated\n\n\n½ cup finely chopped red bell pepper\n\n\n2  green onions, finely chopped\n\n\n⅓ cup mayonnaise\n\n\n⅓ cup brown sugar\n\n\n1 tablespoon lemon juice, or to taste"}]</t>
-        </is>
-      </c>
-      <c r="I32" s="1" t="inlineStr">
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 cups chopped cabbage\n\n\n1  unpeeled red apple, cored and chopped\n\n\n1  unpeeled Granny Smith apple, cored and chopped\n\n\n1  carrot, grated\n\n\n½ cup finely chopped red bell pepper\n\n\n2  green onions, finely chopped\n\n\n⅓ cup mayonnaise\n\n\n⅓ cup brown sugar\n\n\n1 tablespoon lemon juice, or to taste'}]</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine cabbage, red apple, green apple, carrot, red bell pepper, and green onions in a large bowl."},{"recipe_directions":"Mix together mayonnaise, brown sugar, and lemon juice in a small bowl. Pour dressing over cabbage mixture; mix until evenly coated."}]</t>
         </is>
       </c>
-      <c r="J32" s="1" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Salad"},{"recipe_tags":"Coleslaw Recipes"},{"recipe_tags":"Apple Coleslaw Recipes"}]</t>
         </is>
       </c>
-      <c r="K32" s="1" t="inlineStr">
+      <c r="K32" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"137\nCalories\n\n\n5g \nFat\n\n\n25g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="1" t="inlineStr">
+    <row r="33">
+      <c r="A33" t="inlineStr">
         <is>
           <t>1699658564-32</t>
         </is>
       </c>
-      <c r="B33" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1321/healthy-recipes/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C33" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D33" s="1" t="inlineStr">
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1321/healthy-recipes/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Bkgnwd0ZTOB6WCDD6JwHB-LjIOk=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/6993403-be81cbe376864af1a656d1b71b2ff161.jpg"
@@ -2165,59 +2386,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E33" s="1" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/21145/homemade-stewed-tomatoes/</t>
         </is>
       </c>
-      <c r="F33" s="1" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>Homemade Stewed Tomatoes</t>
         </is>
       </c>
-      <c r="G33" s="1" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n30 mins\n\n\nTotal Time:\n50 mins\n\n\nServings:\n16"}]</t>
         </is>
       </c>
-      <c r="H33" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"10  ripe tomatoes\n\n\n2 teaspoons salt"}]</t>
-        </is>
-      </c>
-      <c r="I33" s="1" t="inlineStr">
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '10  ripe tomatoes\n\n\n2 teaspoons salt'}]</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Bring a large pot of water to a boil. Fill a large bowl with ice water and set it aside."},{"recipe_directions":"Cut a shallow X on the bottom of each tomato. This will make peeling much easier. Place tomatoes in boiling water until the skin begins to peel back, about 30 seconds to 1 minute."},{"recipe_directions":"Transfer tomatoes into the bowl of ice water; set aside for 5 minutes. Remove tomatoes from water; peel off the skin with your hands and slice into quarters."},{"recipe_directions":"Transfer tomatoes into a large saucepan over low heat; stir in salt. Simmer, stirring occasionally to prevent burning, until slightly thickened, about 20 to 30 minutes."}]</t>
         </is>
       </c>
-      <c r="J33" s="1" t="inlineStr">
+      <c r="J33" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Tomatoes"}]</t>
         </is>
       </c>
-      <c r="K33" s="1" t="inlineStr">
+      <c r="K33" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"14\nCalories\n\n\n0g \nFat\n\n\n3g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="1" t="inlineStr">
+    <row r="34">
+      <c r="A34" t="inlineStr">
         <is>
           <t>1699658571-33</t>
         </is>
       </c>
-      <c r="B34" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1321/healthy-recipes/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C34" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D34" s="1" t="inlineStr">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1321/healthy-recipes/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/2V8pSaDwXavxhoC0g7MTWCpvSP8=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/140422-onigiri-japanese-rice-balls-ddmfs-Beauty-3x4-1-aa650c90910247d086e22c57b8402367.jpg"
@@ -2231,59 +2448,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E34" s="1" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/140422/onigiri-japanese-rice-balls/</t>
         </is>
       </c>
-      <c r="F34" s="1" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>Onigiri (Japanese Rice Balls)</t>
         </is>
       </c>
-      <c r="G34" s="1" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n20 mins\n\n\nAdditional Time:\n20 mins\n\n\nTotal Time:\n 1 hr\n\n\nServings:\n4 \n\n\nYield:\n8 onigiri"}]</t>
         </is>
       </c>
-      <c r="H34" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"4 cups uncooked short-grain white rice\n\n\n5 ½ cups water, divided\n\n\n¼ teaspoon salt\n\n\n¼ cup bonito shavings (dry fish flakes)\n\n\n2 sheets nori (dry seaweed), cut into 1/2-inch strips\n\n\n2 tablespoons sesame seeds"}]</t>
-        </is>
-      </c>
-      <c r="I34" s="1" t="inlineStr">
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4 cups uncooked short-grain white rice\n\n\n5 ½ cups water, divided\n\n\n¼ teaspoon salt\n\n\n¼ cup bonito shavings (dry fish flakes)\n\n\n2 sheets nori (dry seaweed), cut into 1/2-inch strips\n\n\n2 tablespoons sesame seeds'}]</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Wash rice in a mesh strainer until water runs clear. Combine washed rice and 4 1/2 cups water in a saucepan. Bring to a boil over high heat, stirring occasionally. Reduce heat to low; cover, and simmer rice until water is absorbed, 15 to 20 minutes. Let rice rest for 15 minutes to continue to steam and become tender. Allow cooked rice to cool."},{"recipe_directions":"Combine remaining 1 cup water with salt in a small bowl; use to dampen hands before handling rice. Divide cooked rice into 8 equal portions. Use one portion of rice for each onigiri."},{"recipe_directions":"Divide one portion of rice in two. Create a dimple in rice and fill with a heaping teaspoon of bonito flakes. Cover with remaining portion of rice and press lightly to enclose filling inside rice ball. Gently press rice to shape into a triangle; wrap with a strip of nori and sprinkle with sesame seeds. Repeat with remaining portions of rice."}]</t>
         </is>
       </c>
-      <c r="J34" s="1" t="inlineStr">
+      <c r="J34" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Rice Side Dish Recipes"}]</t>
         </is>
       </c>
-      <c r="K34" s="1" t="inlineStr">
+      <c r="K34" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"744\nCalories\n\n\n3g \nFat\n\n\n159g \nCarbs\n\n\n14g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="1" t="inlineStr">
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t>1699658577-34</t>
         </is>
       </c>
-      <c r="B35" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1321/healthy-recipes/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C35" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D35" s="1" t="inlineStr">
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1321/healthy-recipes/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/_4NnvNH3cM9jx__MVe0yyZhSEhE=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/150114-cuban-style-yuca-ddmfs-3x2-81-d067f20dfce8455e8371007546d1c767.jpg"
@@ -2297,59 +2510,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E35" s="1" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/150114/cuban-style-yuca/</t>
         </is>
       </c>
-      <c r="F35" s="1" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>Cuban-Style Yuca</t>
         </is>
       </c>
-      <c r="G35" s="1" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H35" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 pounds yuca, peeled and sliced lengthwise\n\n\n½ teaspoon salt\n\n\n¼ cup olive oil\n\n\n½  onion, diced\n\n\n4 cloves garlic, minced\n\n\n½ teaspoon fresh lemon juice"}]</t>
-        </is>
-      </c>
-      <c r="I35" s="1" t="inlineStr">
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 pounds yuca, peeled and sliced lengthwise\n\n\n½ teaspoon salt\n\n\n¼ cup olive oil\n\n\n½  onion, diced\n\n\n4 cloves garlic, minced\n\n\n½ teaspoon fresh lemon juice'}]</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place yuca into a pan and fill with enough water to cover. Stir in salt. Bring to a boil over medium-high heat, cover, and cook until tender, about 15 minutes. Drain; place yuca on a serving plate."},{"recipe_directions":"Meanwhile, place olive oil, onion, garlic, and lemon juice into a pan. Cook over medium heat for about 5 minutes."},{"recipe_directions":"Pour the hot olive oil mixture over the yuca; serve immediately."}]</t>
         </is>
       </c>
-      <c r="J35" s="1" t="inlineStr">
+      <c r="J35" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"}]</t>
         </is>
       </c>
-      <c r="K35" s="1" t="inlineStr">
+      <c r="K35" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"268\nCalories\n\n\n9g \nFat\n\n\n43g \nCarbs\n\n\n6g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="1" t="inlineStr">
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>1699658584-35</t>
         </is>
       </c>
-      <c r="B36" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1321/healthy-recipes/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C36" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D36" s="1" t="inlineStr">
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1321/healthy-recipes/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/1fjkVX81vG_9IqXwS3IS24rDyXY=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2823812-9fa54f6373a1419ebe82803fe04b46fc.jpg"
@@ -2362,59 +2571,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E36" s="1" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/244238/oven-roasted-vegetables/</t>
         </is>
       </c>
-      <c r="F36" s="1" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>Oven-Roasted Vegetables</t>
         </is>
       </c>
-      <c r="G36" s="1" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n8"}]</t>
         </is>
       </c>
-      <c r="H36" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"cooking spray\n\n\n½ cup olive oil, or more as needed\n\n\n1 (1 ounce) package dry onion soup mix, or more to taste\n\n\n2 pounds potatoes, cut into 1-inch pieces, or more to taste\n\n\n1 pound baby carrots\n\n\n2 large bell peppers, cut into 1-inch pieces\n\n\n1 large onion, cut into 1-inch pieces, or more to taste"}]</t>
-        </is>
-      </c>
-      <c r="I36" s="1" t="inlineStr">
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': 'cooking spray\n\n\n½ cup olive oil, or more as needed\n\n\n1 (1 ounce) package dry onion soup mix, or more to taste\n\n\n2 pounds potatoes, cut into 1-inch pieces, or more to taste\n\n\n1 pound baby carrots\n\n\n2 large bell peppers, cut into 1-inch pieces\n\n\n1 large onion, cut into 1-inch pieces, or more to taste'}]</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 450 degrees F (230 degrees C). Grease a baking sheet with cooking spray."},{"recipe_directions":"Mix together olive oil and onion soup mix in a large bowl until combined. Add potatoes, carrots, bell peppers, and onion; mix until well coated. Spread evenly onto the prepared baking sheet."},{"recipe_directions":"Roast in the preheated oven until vegetables are tender, 15 to 30 minutes."},{"recipe_directions":"The time will vary with the size and amount of vegetables. If you have lots of vegetables, roast them in 2 pans to speed up the cooking."},{"recipe_directions":"This recipe doesn't work as well in an air-bake pan as it doesn't brown as much."}]</t>
         </is>
       </c>
-      <c r="J36" s="1" t="inlineStr">
+      <c r="J36" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Carrots"}]</t>
         </is>
       </c>
-      <c r="K36" s="1" t="inlineStr">
+      <c r="K36" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"255\nCalories\n\n\n14g \nFat\n\n\n31g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="1" t="inlineStr">
+    <row r="37">
+      <c r="A37" t="inlineStr">
         <is>
           <t>1699658590-36</t>
         </is>
       </c>
-      <c r="B37" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1321/healthy-recipes/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C37" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D37" s="1" t="inlineStr">
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1321/healthy-recipes/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/iLu18OSn1EzNkrMThLvUM3fa8yY=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1325169-8afe2649f3aa4801844a509aafde0e72.jpg"
@@ -2427,59 +2632,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E37" s="1" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/238842/microwave-corn-on-the-cob-in-the-husk/</t>
         </is>
       </c>
-      <c r="F37" s="1" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>Microwave Corn on the Cob in the Husk</t>
         </is>
       </c>
-      <c r="G37" s="1" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n5 mins\n\n\nTotal Time:\n10 mins\n\n\nServings:\n1"}]</t>
         </is>
       </c>
-      <c r="H37" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 ear fresh corn in the husk"}]</t>
-        </is>
-      </c>
-      <c r="I37" s="1" t="inlineStr">
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ear fresh corn in the husk'}]</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Rinse corn in the husk under water briefly. Wrap with a paper towel and place on a microwave-safe plate."},{"recipe_directions":"Cook corn in the microwave until hot and cooked through, 3 to 5 minutes. Remove from the microwave and let rest for 2 minutes. Remove corn husk."},{"recipe_directions":"Cooking time is variable. I cook 1 large ear for 5 minutes in a 1000-watt oven. You will need to adjust the time if you have small ears of corn."},{"recipe_directions":"No need to remove the corn silk. When you take the husk off, the silk comes right along with it, and your corn is as clean as it can be. Because the corn is hot, I use a clean dish cloth to hold and remove the husk."}]</t>
         </is>
       </c>
-      <c r="J37" s="1" t="inlineStr">
+      <c r="J37" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Corn"}]</t>
         </is>
       </c>
-      <c r="K37" s="1" t="inlineStr">
+      <c r="K37" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"77\nCalories\n\n\n1g \nFat\n\n\n17g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="1" t="inlineStr">
+    <row r="38">
+      <c r="A38" t="inlineStr">
         <is>
           <t>1699658599-37</t>
         </is>
       </c>
-      <c r="B38" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1321/healthy-recipes/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C38" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D38" s="1" t="inlineStr">
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1321/healthy-recipes/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/R-v1TfrMfK81UZohC0yd9x7cGrs=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/235657-RoastedRomanesco-MFS-2X3-0183-f31ec2ed0d074c79bbf7aba3a1ee4e41.jpg"
@@ -2493,59 +2694,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E38" s="1" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/235657/roasted-romanesco/</t>
         </is>
       </c>
-      <c r="F38" s="1" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>Roasted Romanesco</t>
         </is>
       </c>
-      <c r="G38" s="1" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H38" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 head Romanesco, cut into bite-size pieces\n\n\n1 tablespoon olive oil, or more to taste\n\n\n2 grinds fresh black pepper\n\n\n1 pinch garlic powder\n\n\n1 pinch paprika\n\n\n  salt to taste"}]</t>
-        </is>
-      </c>
-      <c r="I38" s="1" t="inlineStr">
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 head Romanesco, cut into bite-size pieces\n\n\n1 tablespoon olive oil, or more to taste\n\n\n2 grinds fresh black pepper\n\n\n1 pinch garlic powder\n\n\n1 pinch paprika\n\n\n  salt to taste'}]</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Gather all ingredients."},{"recipe_directions":"Preheat the oven to 425 degrees F (220 degrees C). Line a baking sheet with aluminum foil."},{"recipe_directions":"Spread Romanesco onto the prepared baking sheet. Drizzle with olive oil; season with black pepper, garlic powder, paprika, and salt."},{"recipe_directions":"Roast in the preheated oven until tender, 15 to 20 minutes."}]</t>
         </is>
       </c>
-      <c r="J38" s="1" t="inlineStr">
+      <c r="J38" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Roasted Vegetable Recipes"}]</t>
         </is>
       </c>
-      <c r="K38" s="1" t="inlineStr">
+      <c r="K38" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"69\nCalories\n\n\n4g \nFat\n\n\n8g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="1" t="inlineStr">
+    <row r="39">
+      <c r="A39" t="inlineStr">
         <is>
           <t>1699658605-38</t>
         </is>
       </c>
-      <c r="B39" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1321/healthy-recipes/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C39" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D39" s="1" t="inlineStr">
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1321/healthy-recipes/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/p3Tk1BimtV0HELxsuXmktg1795c=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1999x0:2001x2):format(webp)/49552_Quinoaandblackbeans_ddmfs_4x3_2745-46315412dc4f42fab1296ebee4765507.jpg"
@@ -2559,59 +2756,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E39" s="1" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/49552/quinoa-and-black-beans/</t>
         </is>
       </c>
-      <c r="F39" s="1" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>Quinoa and Black Beans</t>
         </is>
       </c>
-      <c r="G39" s="1" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n35 mins\n\n\nTotal Time:\n50 mins\n\n\nServings:\n10"}]</t>
         </is>
       </c>
-      <c r="H39" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 teaspoon vegetable oil\n\n\n1  onion, chopped\n\n\n3 cloves garlic, chopped\n\n\n¾ cup quinoa\n\n\n1 ½ cups vegetable broth\n\n\n1 teaspoon ground cumin\n\n\n¼ teaspoon cayenne pepper\n\n\n  salt and ground black pepper to taste\n\n\n1 cup frozen corn kernels\n\n\n2 (15 ounce) cans black beans, rinsed and drained\n\n\n½ cup chopped fresh cilantro"}]</t>
-        </is>
-      </c>
-      <c r="I39" s="1" t="inlineStr">
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 teaspoon vegetable oil\n\n\n1  onion, chopped\n\n\n3 cloves garlic, chopped\n\n\n¾ cup quinoa\n\n\n1 ½ cups vegetable broth\n\n\n1 teaspoon ground cumin\n\n\n¼ teaspoon cayenne pepper\n\n\n  salt and ground black pepper to taste\n\n\n1 cup frozen corn kernels\n\n\n2 (15 ounce) cans black beans, rinsed and drained\n\n\n½ cup chopped fresh cilantro'}]</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Gather all ingredients."},{"recipe_directions":"Heat oil in a large saucepan over medium heat. Add onion and garlic; cook and stir until lightly browned, about 10 minutes."},{"recipe_directions":"Mix quinoa into onion mixture and cover with vegetable broth; season with cumin, cayenne pepper, salt, and pepper."},{"recipe_directions":"Bring to a boil; cover, reduce heat, and simmer until quinoa is tender and broth is absorbed, about 20 minutes."},{"recipe_directions":"Stir in frozen corn and continue to simmer until heated through, about 5 minutes. Mix in black beans and cilantro."}]</t>
         </is>
       </c>
-      <c r="J39" s="1" t="inlineStr">
+      <c r="J39" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Grain Side Dish Recipes"}]</t>
         </is>
       </c>
-      <c r="K39" s="1" t="inlineStr">
+      <c r="K39" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"153\nCalories\n\n\n2g \nFat\n\n\n28g \nCarbs\n\n\n8g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="1" t="inlineStr">
+    <row r="40">
+      <c r="A40" t="inlineStr">
         <is>
           <t>1699658612-39</t>
         </is>
       </c>
-      <c r="B40" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1321/healthy-recipes/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C40" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D40" s="1" t="inlineStr">
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1321/healthy-recipes/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/gpUyQc_K42TG1JYbLG4OhxjWJuo=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2432901-italian-peas-Allrecipes-Magazine-4x3-1-a69276aa176b4f34a1f323ae704fce77.jpg"
@@ -2625,59 +2818,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E40" s="1" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/90209/italian-peas/</t>
         </is>
       </c>
-      <c r="F40" s="1" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>Italian Peas</t>
         </is>
       </c>
-      <c r="G40" s="1" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H40" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 tablespoons olive oil\n\n\n1  onion, chopped\n\n\n2 cloves garlic, minced\n\n\n16 ounces frozen green peas\n\n\n1 tablespoon chicken stock\n\n\n  salt and ground black pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I40" s="1" t="inlineStr">
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 tablespoons olive oil\n\n\n1  onion, chopped\n\n\n2 cloves garlic, minced\n\n\n16 ounces frozen green peas\n\n\n1 tablespoon chicken stock\n\n\n  salt and ground black pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Gather all ingredients."},{"recipe_directions":"Heat olive oil in a skillet over medium heat. Stir in onion; cook until softened, about 5 minutes. Stir in garlic and cook for 1 minute."},{"recipe_directions":"Add frozen peas and stir in stock. Season with salt and pepper. Cover and cook until the peas are tender, about 5 minutes."}]</t>
         </is>
       </c>
-      <c r="J40" s="1" t="inlineStr">
+      <c r="J40" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Onion"}]</t>
         </is>
       </c>
-      <c r="K40" s="1" t="inlineStr">
+      <c r="K40" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"106\nCalories\n\n\n5g \nFat\n\n\n12g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="41" spans="1:10">
-      <c r="A41" s="1" t="inlineStr">
+    <row r="41">
+      <c r="A41" t="inlineStr">
         <is>
           <t>1699658620-40</t>
         </is>
       </c>
-      <c r="B41" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1321/healthy-recipes/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C41" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D41" s="1" t="inlineStr">
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1321/healthy-recipes/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/uix3Gg5JyOC_5zxqCSrrILGYHxU=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/58389-slow-cooker-homemade-beans-ddmfs-1x1-5559-ccd459db9f244f4e8fa2746285b30c78.jpg"
@@ -2691,59 +2880,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E41" s="1" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/58389/slow-cooker-homemade-beans/</t>
         </is>
       </c>
-      <c r="F41" s="1" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>Slow Cooker Homemade Beans</t>
         </is>
       </c>
-      <c r="G41" s="1" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n 8 hrs\n\n\nTotal Time:\n 8 hrs 20 mins\n\n\nServings:\n12"}]</t>
         </is>
       </c>
-      <c r="H41" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3 cups dry navy beans, soaked overnight or boiled for one hour\n\n\n6 slices thick cut bacon, cut into 1 inch pieces\n\n\n1 large onion, chopped\n\n\n1 ½ cups ketchup\n\n\n1 ½ cups water\n\n\n1 cup brown sugar\n\n\n¼ cup molasses\n\n\n1 tablespoon dry mustard\n\n\n1 tablespoon salt"}]</t>
-        </is>
-      </c>
-      <c r="I41" s="1" t="inlineStr">
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 cups dry navy beans, soaked overnight or boiled for one hour\n\n\n6 slices thick cut bacon, cut into 1 inch pieces\n\n\n1 large onion, chopped\n\n\n1 ½ cups ketchup\n\n\n1 ½ cups water\n\n\n1 cup brown sugar\n\n\n¼ cup molasses\n\n\n1 tablespoon dry mustard\n\n\n1 tablespoon salt'}]</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Gather all ingredients."},{"recipe_directions":"Drain soaking liquid from beans; place them in a slow cooker."},{"recipe_directions":"Stir bacon, onion, ketchup, water, brown sugar, molasses, mustard, and salt into beans until well mixed."},{"recipe_directions":"Cover and cook on Low for 8 to 10 hours; stir occasionally if possible."}]</t>
         </is>
       </c>
-      <c r="J41" s="1" t="inlineStr">
+      <c r="J41" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Beans and Peas"},{"recipe_tags":"Baked Bean Recipes"}]</t>
         </is>
       </c>
-      <c r="K41" s="1" t="inlineStr">
+      <c r="K41" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"296\nCalories\n\n\n3g \nFat\n\n\n57g \nCarbs\n\n\n12g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="1" t="inlineStr">
+    <row r="42">
+      <c r="A42" t="inlineStr">
         <is>
           <t>1699658629-41</t>
         </is>
       </c>
-      <c r="B42" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1321/healthy-recipes/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C42" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D42" s="1" t="inlineStr">
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1321/healthy-recipes/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/hXMq0l773Bg4BSrJXhTWw_Xyo8c=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1999x0:2001x2):format(webp)/21655-simple-baked-beans-DDMFS-4x3-842c820a94234717af51523f3dae0db9.jpg"
@@ -2757,59 +2942,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E42" s="1" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/21655/simple-baked-beans/</t>
         </is>
       </c>
-      <c r="F42" s="1" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>Easy Baked Beans</t>
         </is>
       </c>
-      <c r="G42" s="1" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n 3 hrs\n\n\nTotal Time:\n 3 hrs 15 mins\n\n\nServings:\n10"}]</t>
         </is>
       </c>
-      <c r="H42" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"cooking spray\n\n\n2 (16 ounce) cans baked beans with pork\n\n\n¼ cup molasses\n\n\n¼ cup chopped onions\n\n\n4 tablespoons brown sugar\n\n\n2 tablespoons ketchup\n\n\n1 tablespoon prepared mustard\n\n\n2 slices bacon, chopped"}]</t>
-        </is>
-      </c>
-      <c r="I42" s="1" t="inlineStr">
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': 'cooking spray\n\n\n2 (16 ounce) cans baked beans with pork\n\n\n¼ cup molasses\n\n\n¼ cup chopped onions\n\n\n4 tablespoons brown sugar\n\n\n2 tablespoons ketchup\n\n\n1 tablespoon prepared mustard\n\n\n2 slices bacon, chopped'}]</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C). Grease a casserole dish with cooking spray."},{"recipe_directions":"Mix together baked beans with pork, molasses, onions, brown sugar, ketchup, and mustard together in a large bowl."},{"recipe_directions":"Transfer mixture to the prepared dish and top with chopped bacon."},{"recipe_directions":"Cover and bake in the preheated oven until thickened, about 3 hours."},{"recipe_directions":"Serve hot and enjoy!"}]</t>
         </is>
       </c>
-      <c r="J42" s="1" t="inlineStr">
+      <c r="J42" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Beans and Peas"},{"recipe_tags":"Baked Bean Recipes"}]</t>
         </is>
       </c>
-      <c r="K42" s="1" t="inlineStr">
+      <c r="K42" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"176\nCalories\n\n\n4g \nFat\n\n\n32g \nCarbs\n\n\n6g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="43" spans="1:10">
-      <c r="A43" s="1" t="inlineStr">
+    <row r="43">
+      <c r="A43" t="inlineStr">
         <is>
           <t>1699658636-42</t>
         </is>
       </c>
-      <c r="B43" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1321/healthy-recipes/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C43" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D43" s="1" t="inlineStr">
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1321/healthy-recipes/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/mBkXmyI236dZcHj_XL1OfFFiKuw=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/7982469-baked-beans-from-scratch-Lynda-Lukasiewicz-4x3-1-bec1a5073cd147bf873fd9d73690c61c.jpg"
@@ -2823,59 +3004,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E43" s="1" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/165249/baked-beans-from-scratch/</t>
         </is>
       </c>
-      <c r="F43" s="1" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>Baked Beans from Scratch</t>
         </is>
       </c>
-      <c r="G43" s="1" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n 7 hrs 20 mins\n\n\nTotal Time:\n 7 hrs 30 mins\n\n\nServings:\n10 \n\n\nYield:\n5 cups"}]</t>
         </is>
       </c>
-      <c r="H43" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup navy beans, soaked overnight and drained\n\n\n4 cups water\n\n\n¼ cup ketchup\n\n\n¼ cup maple syrup\n\n\n2 tablespoons brown sugar\n\n\n2 tablespoons molasses\n\n\n1 teaspoon Worcestershire sauce\n\n\n½ teaspoon salt\n\n\n⅛ teaspoon ground black pepper\n\n\n⅛ teaspoon chili powder\n\n\n1 small onion, chopped"}]</t>
-        </is>
-      </c>
-      <c r="I43" s="1" t="inlineStr">
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup navy beans, soaked overnight and drained\n\n\n4 cups water\n\n\n¼ cup ketchup\n\n\n¼ cup maple syrup\n\n\n2 tablespoons brown sugar\n\n\n2 tablespoons molasses\n\n\n1 teaspoon Worcestershire sauce\n\n\n½ teaspoon salt\n\n\n⅛ teaspoon ground black pepper\n\n\n⅛ teaspoon chili powder\n\n\n1 small onion, chopped'}]</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place beans in a large saucepan with 4 cups of water. Bring to a boil over high heat, then reduce heat to medium-low, cover, and simmer 1 hour."},{"recipe_directions":"Preheat the oven to 375 degrees F (190 degrees C). Stir ketchup, maple syrup, brown sugar, molasses, Worcestershire sauce, salt, pepper, and chili powder together in a small bowl; set aside."},{"recipe_directions":"Once beans have simmered for 1 hour, drain, and reserve cooking liquid. Pour beans into a 1 1/2-quart casserole dish; stir in chopped onion and molasses mixture. Stir in enough reserved cooking liquid so sauce covers beans by 1/4 inch."},{"recipe_directions":"Cover and bake in the preheated oven for 10 minutes; reduce heat to 200 degrees F (95 degrees C) and cook 6 hours longer, stirring beans after they have cooked for 3 hours. Once beans are tender and sauce has reduced and is sticky, remove from the oven, stir, recover, and allow to stand 15 minutes before serving."},{"recipe_directions":"Place navy beans into a large pot and cover with several inches of cold water; bring to a boil over high heat. Once boiling, turn off the heat, cover, and let stand 1 hour. Drain and rinse before using."}]</t>
         </is>
       </c>
-      <c r="J43" s="1" t="inlineStr">
+      <c r="J43" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Beans and Peas"},{"recipe_tags":"Baked Bean Recipes"}]</t>
         </is>
       </c>
-      <c r="K43" s="1" t="inlineStr">
+      <c r="K43" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"122\nCalories\n\n\n0g \nFat\n\n\n26g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="1" t="inlineStr">
+    <row r="44">
+      <c r="A44" t="inlineStr">
         <is>
           <t>1699658643-43</t>
         </is>
       </c>
-      <c r="B44" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1321/healthy-recipes/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C44" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D44" s="1" t="inlineStr">
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1321/healthy-recipes/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/tQZYMQIqzDUOx5hvMgyWnjoF9mE=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3678575-0093b22dee824fe3974ab37798153262.jpg"
@@ -2889,59 +3066,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E44" s="1" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/20849/baked-french-fries-i/</t>
         </is>
       </c>
-      <c r="F44" s="1" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>Baked French Fries</t>
         </is>
       </c>
-      <c r="G44" s="1" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n45 mins\n\n\nTotal Time:\n50 mins\n\n\nServings:\n1"}]</t>
         </is>
       </c>
-      <c r="H44" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 large baking potato\n\n\n1 tablespoon olive oil\n\n\n½ teaspoon paprika\n\n\n½ teaspoon garlic powder\n\n\n½ teaspoon chili powder\n\n\n½ teaspoon onion powder"}]</t>
-        </is>
-      </c>
-      <c r="I44" s="1" t="inlineStr">
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 large baking potato\n\n\n1 tablespoon olive oil\n\n\n½ teaspoon paprika\n\n\n½ teaspoon garlic powder\n\n\n½ teaspoon chili powder\n\n\n½ teaspoon onion powder'}]</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 450 degrees F (230 degrees C)."},{"recipe_directions":"Cut potato into thick wedges. Mix olive oil, paprika, garlic powder, chili powder, and onion powder together in a medium bowl. Add potato wedges and toss to coat evenly; arrange on a baking sheet."},{"recipe_directions":"Bake in the preheated oven, turning once or twice, until golden brown and crispy, about 45 minutes."}]</t>
         </is>
       </c>
-      <c r="J44" s="1" t="inlineStr">
+      <c r="J44" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Side Dish"},{"recipe_tags":"Fries Recipes"},{"recipe_tags":"French Fries Recipes"},{"recipe_tags":"Baked French Fries"}]</t>
         </is>
       </c>
-      <c r="K44" s="1" t="inlineStr">
+      <c r="K44" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"357\nCalories\n\n\n14g \nFat\n\n\n55g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="1" t="inlineStr">
+    <row r="45">
+      <c r="A45" t="inlineStr">
         <is>
           <t>1699658649-44</t>
         </is>
       </c>
-      <c r="B45" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1321/healthy-recipes/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C45" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D45" s="1" t="inlineStr">
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1321/healthy-recipes/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/oaBbNW38OQLr0iOepTeoGljgPAQ=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1999x0:2001x2):format(webp)/238097cabbage-steaksFranceC4x3-007e515016434a249985be179df11b64.jpg"
@@ -2955,59 +3128,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E45" s="1" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/238097/cabbage-steaks/</t>
         </is>
       </c>
-      <c r="F45" s="1" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>Cabbage Steaks</t>
         </is>
       </c>
-      <c r="G45" s="1" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n45 mins\n\n\nTotal Time:\n 1 hr\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H45" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 head cabbage\n\n\n2 tablespoons light olive oil\n\n\n2 tablespoons minced garlic\n\n\n½ teaspoon salt, or to taste\n\n\n½ teaspoon ground black pepper, or to taste"}]</t>
-        </is>
-      </c>
-      <c r="I45" s="1" t="inlineStr">
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 head cabbage\n\n\n2 tablespoons light olive oil\n\n\n2 tablespoons minced garlic\n\n\n½ teaspoon salt, or to taste\n\n\n½ teaspoon ground black pepper, or to taste'}]</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C)."},{"recipe_directions":"Cut the bottom off of the cabbage and set it so the flat end is on the cutting board; cut into 1-inch thick slices. Arrange slices in a single layer in a large casserole dish."},{"recipe_directions":"Drizzle oil over cabbage slices and sprinkle with garlic. Season cabbage with salt and pepper. Cover the dish with aluminum foil."},{"recipe_directions":"Bake in the preheated oven until cabbage core is easily pierced with a fork, about 45 minutes."}]</t>
         </is>
       </c>
-      <c r="J45" s="1" t="inlineStr">
+      <c r="J45" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Cabbage"}]</t>
         </is>
       </c>
-      <c r="K45" s="1" t="inlineStr">
+      <c r="K45" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"92\nCalories\n\n\n5g \nFat\n\n\n13g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="46" spans="1:10">
-      <c r="A46" s="1" t="inlineStr">
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>1699658656-45</t>
         </is>
       </c>
-      <c r="B46" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1321/healthy-recipes/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C46" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D46" s="1" t="inlineStr">
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1321/healthy-recipes/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Ezfdz4RJfYoRuMRH8WVEYTcf6zc=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/5521411-roasted-garlic-lemon-broccoli-jewels-1x1-1-22ed72a9a1b543159fa4fda5aad56995.jpg"
@@ -3021,59 +3190,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E46" s="1" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/144346/roasted-garlic-lemon-broccoli/</t>
         </is>
       </c>
-      <c r="F46" s="1" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>Roasted Garlic Lemon Broccoli</t>
         </is>
       </c>
-      <c r="G46" s="1" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H46" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 heads broccoli, separated into florets\n\n\n2 teaspoons extra-virgin olive oil\n\n\n1 teaspoon sea salt\n\n\n½ teaspoon ground black pepper\n\n\n1 clove garlic, minced\n\n\n½ teaspoon lemon juice"}]</t>
-        </is>
-      </c>
-      <c r="I46" s="1" t="inlineStr">
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 heads broccoli, separated into florets\n\n\n2 teaspoons extra-virgin olive oil\n\n\n1 teaspoon sea salt\n\n\n½ teaspoon ground black pepper\n\n\n1 clove garlic, minced\n\n\n½ teaspoon lemon juice'}]</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 400 degrees F (200 degrees C)."},{"recipe_directions":"Toss broccoli florets with extra virgin olive oil, sea salt, pepper, and garlic in a large bowl. Spread the broccoli out in an even layer on a baking sheet."},{"recipe_directions":"Bake in the preheated oven until florets are tender enough to pierce the stems with a fork, 15 to 20 minutes. Remove and transfer to a serving platter."},{"recipe_directions":"Squeeze lemon juice liberally over broccoli before serving for a refreshing, tangy finish."}]</t>
         </is>
       </c>
-      <c r="J46" s="1" t="inlineStr">
+      <c r="J46" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Broccoli"}]</t>
         </is>
       </c>
-      <c r="K46" s="1" t="inlineStr">
+      <c r="K46" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"49\nCalories\n\n\n2g \nFat\n\n\n7g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="47" spans="1:10">
-      <c r="A47" s="1" t="inlineStr">
+    <row r="47">
+      <c r="A47" t="inlineStr">
         <is>
           <t>1699658663-46</t>
         </is>
       </c>
-      <c r="B47" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1321/healthy-recipes/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C47" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D47" s="1" t="inlineStr">
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1321/healthy-recipes/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/IPL4ROVpHu7iqdkSqUzdHuv1ROw=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1072717-pan-fried-brussels-sprouts-Chefster-4x3-1-eeb1233a12f94a4f939d55de6d9c9540.jpg"
@@ -3087,59 +3252,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E47" s="1" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/216805/pan-fried-brussels-sprouts/</t>
         </is>
       </c>
-      <c r="F47" s="1" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>Pan Fried Brussels Sprouts</t>
         </is>
       </c>
-      <c r="G47" s="1" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H47" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 tablespoon olive oil\n\n\n2 teaspoons crushed garlic\n\n\n¼  white onion, chopped\n\n\n1 pound trimmed Brussels sprouts\n\n\n  salt and ground black pepper to taste\n\n\n1 pinch garlic powder, or to taste"}]</t>
-        </is>
-      </c>
-      <c r="I47" s="1" t="inlineStr">
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 tablespoon olive oil\n\n\n2 teaspoons crushed garlic\n\n\n¼  white onion, chopped\n\n\n1 pound trimmed Brussels sprouts\n\n\n  salt and ground black pepper to taste\n\n\n1 pinch garlic powder, or to taste'}]</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat olive oil in a cast-iron skillet over medium-low heat. Add garlic and stir until golden brown and fragrant, about 2 to 3 minutes. Add onion and cook until soft, stirring often, about 5 minutes."},{"recipe_directions":"Add Brussels sprouts and cook until one side of the sprouts turns golden brown, 5 to 7 minutes. Stir to turn sprouts over and cook until evenly golden brown, another 5 to 7 minutes. Season with salt, black pepper, and garlic powder."}]</t>
         </is>
       </c>
-      <c r="J47" s="1" t="inlineStr">
+      <c r="J47" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Brussels Sprouts"}]</t>
         </is>
       </c>
-      <c r="K47" s="1" t="inlineStr">
+      <c r="K47" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"87\nCalories\n\n\n4g \nFat\n\n\n12g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="48" spans="1:10">
-      <c r="A48" s="1" t="inlineStr">
+    <row r="48">
+      <c r="A48" t="inlineStr">
         <is>
           <t>1699658671-47</t>
         </is>
       </c>
-      <c r="B48" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1321/healthy-recipes/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C48" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D48" s="1" t="inlineStr">
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1321/healthy-recipes/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/bdDbQafKLyODrvozYEl9IO3TBwc=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(299x0:301x2):format(webp)/662714-puerto-rican-tostones-fried-plantains-Melissa-Goff-1x1-1-8d283dbbc8f04576a9f9698ec8287560.jpg"
@@ -3153,59 +3314,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E48" s="1" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/16768/puerto-rican-tostones-fried-plantains/</t>
         </is>
       </c>
-      <c r="F48" s="1" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>Puerto Rican Tostones (Fried Plantains)</t>
         </is>
       </c>
-      <c r="G48" s="1" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n2"}]</t>
         </is>
       </c>
-      <c r="H48" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1  green plantain\n\n\n5 tablespoons oil for frying\n\n\n3 cups cold water\n\n\n  salt to taste"}]</t>
-        </is>
-      </c>
-      <c r="I48" s="1" t="inlineStr">
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1  green plantain\n\n\n5 tablespoons oil for frying\n\n\n3 cups cold water\n\n\n  salt to taste'}]</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Peel plantain and cut into 1-inch slices. Fill a bowl with 3 cups of cold water."},{"recipe_directions":"Heat oil in a large deep skillet over medium-high heat; add plantain slices in an even layer and fry on both sides until golden brown, about 3 1/2 minutes per side. Set skillet aside."},{"recipe_directions":"Transfer plantain slices to a chopping board; flatten each one by placing a small plate on top and pressing down. Dip plantain slices in cold water."},{"recipe_directions":"Reheat oil in the skillet over medium heat; cook plantain slices for 1 minute on each side. Season to taste with salt and serve immediately."}]</t>
         </is>
       </c>
-      <c r="J48" s="1" t="inlineStr">
+      <c r="J48" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Everyday Cooking"},{"recipe_tags":"Vegetarian"},{"recipe_tags":"Side Dishes"}]</t>
         </is>
       </c>
-      <c r="K48" s="1" t="inlineStr">
+      <c r="K48" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"136\nCalories\n\n\n3g \nFat\n\n\n29g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="49" spans="1:10">
-      <c r="A49" s="1" t="inlineStr">
+    <row r="49">
+      <c r="A49" t="inlineStr">
         <is>
           <t>1699658677-48</t>
         </is>
       </c>
-      <c r="B49" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1321/healthy-recipes/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C49" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D49" s="1" t="inlineStr">
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1321/healthy-recipes/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/ZVABqRtk851NfRBCnsROd2kKI3w=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/9286306-fae333683f4e422b978b70ff919e84f6.jpg"
@@ -3218,59 +3375,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E49" s="1" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/14126/country-fried-squash/</t>
         </is>
       </c>
-      <c r="F49" s="1" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>Country Fried Squash</t>
         </is>
       </c>
-      <c r="G49" s="1" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n25 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n40 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H49" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"½ cup milk\n\n\n1  egg, beaten\n\n\n½ cup all-purpose flour\n\n\n½ cup cornmeal\n\n\n1 pinch garlic salt\n\n\n1 pinch ground black pepper\n\n\n1 pinch salt\n\n\n1 cup oil for frying\n\n\n6 pounds butternut squash - peeled, seeded and sliced"}]</t>
-        </is>
-      </c>
-      <c r="I49" s="1" t="inlineStr">
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '½ cup milk\n\n\n1  egg, beaten\n\n\n½ cup all-purpose flour\n\n\n½ cup cornmeal\n\n\n1 pinch garlic salt\n\n\n1 pinch ground black pepper\n\n\n1 pinch salt\n\n\n1 cup oil for frying\n\n\n6 pounds butternut squash - peeled, seeded and sliced'}]</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Whisk milk and egg together in a small bowl. Combine flour, cornmeal, garlic salt, pepper, and salt together in a separate bowl."},{"recipe_directions":"Heat oil in a deep skillet over medium-high heat."},{"recipe_directions":"Dip each squash slice into egg mixture, then dredge in flour mixture to coat."},{"recipe_directions":"Fry coated squash slices in hot oil, a few at a time, until golden brown on both sides."}]</t>
         </is>
       </c>
-      <c r="J49" s="1" t="inlineStr">
+      <c r="J49" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Squash"}]</t>
         </is>
       </c>
-      <c r="K49" s="1" t="inlineStr">
+      <c r="K49" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"501\nCalories\n\n\n9g \nFat\n\n\n105g \nCarbs\n\n\n12g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="50" spans="1:10">
-      <c r="A50" s="1" t="inlineStr">
+    <row r="50">
+      <c r="A50" t="inlineStr">
         <is>
           <t>1699658684-49</t>
         </is>
       </c>
-      <c r="B50" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1321/healthy-recipes/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C50" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D50" s="1" t="inlineStr">
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1321/healthy-recipes/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/GkuV-Ca5-xIN_InacLt_RbZlw5k=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/253053-993ac87f2f184aa2b2c7780db0f50a03.jpg"
@@ -3283,59 +3436,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E50" s="1" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/158854/chinese-buffet-green-beans/</t>
         </is>
       </c>
-      <c r="F50" s="1" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>'Chinese Buffet' Green Beans</t>
         </is>
       </c>
-      <c r="G50" s="1" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H50" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 tablespoon oil, peanut or sesame\n\n\n2 cloves garlic, thinly sliced\n\n\n1 pound fresh green beans, trimmed\n\n\n2 tablespoons oyster sauce\n\n\n1 tablespoon white sugar\n\n\n2 teaspoons soy sauce"}]</t>
-        </is>
-      </c>
-      <c r="I50" s="1" t="inlineStr">
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 tablespoon oil, peanut or sesame\n\n\n2 cloves garlic, thinly sliced\n\n\n1 pound fresh green beans, trimmed\n\n\n2 tablespoons oyster sauce\n\n\n1 tablespoon white sugar\n\n\n2 teaspoons soy sauce'}]</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat oil in a wok or large skillet over medium-high heat. Stir in garlic; cook until edges begin to brown, about 20 seconds. Add green beans; cook and stir until they begin to soften, about 5 minutes."},{"recipe_directions":"Stir in oyster sauce, sugar, and soy sauce. Cook and stir until beans have attained the desired degree of tenderness, 2 to 4 minutes."}]</t>
         </is>
       </c>
-      <c r="J50" s="1" t="inlineStr">
+      <c r="J50" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Green Beans"}]</t>
         </is>
       </c>
-      <c r="K50" s="1" t="inlineStr">
+      <c r="K50" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"55\nCalories\n\n\n2g \nFat\n\n\n8g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="51" spans="1:10">
-      <c r="A51" s="1" t="inlineStr">
+    <row r="51">
+      <c r="A51" t="inlineStr">
         <is>
           <t>1699658690-50</t>
         </is>
       </c>
-      <c r="B51" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1321/healthy-recipes/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C51" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D51" s="1" t="inlineStr">
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1321/healthy-recipes/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/kMhZokwY24RZiRjjgDXqzBSmwhI=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(2015x0:2017x2):format(webp)/7540314-32ec91bb3d6a455daab010cd44cadc0f.jpg"
@@ -3348,59 +3497,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E51" s="1" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/74749/fideo/</t>
         </is>
       </c>
-      <c r="F51" s="1" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>Fideo</t>
         </is>
       </c>
-      <c r="G51" s="1" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H51" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 tablespoons vegetable oil\n\n\n1 (8 ounce) package fideo pasta\n\n\n1 ½ cups water, divided\n\n\n1 (8 ounce) can tomato sauce, divided\n\n\n1 tablespoon chili powder\n\n\n½ teaspoon ground cumin\n\n\n½ teaspoon garlic salt"}]</t>
-        </is>
-      </c>
-      <c r="I51" s="1" t="inlineStr">
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 tablespoons vegetable oil\n\n\n1 (8 ounce) package fideo pasta\n\n\n1 ½ cups water, divided\n\n\n1 (8 ounce) can tomato sauce, divided\n\n\n1 tablespoon chili powder\n\n\n½ teaspoon ground cumin\n\n\n½ teaspoon garlic salt'}]</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat oil in a saucepan over medium-high heat. Add fideo; cook and stir until browned."},{"recipe_directions":"Add 1 cup water and 1/2 of the tomato sauce to fideo. Season with chili powder, cumin, and garlic salt; stir to blend. Bring to a boil and cook until liquid has almost evaporated."},{"recipe_directions":"Stir in remaining 1/2 cup water and remaining tomato sauce. Cover and cook over medium heat until fideo is tender and sauce thickens, about 10 minutes."}]</t>
         </is>
       </c>
-      <c r="J51" s="1" t="inlineStr">
+      <c r="J51" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"}]</t>
         </is>
       </c>
-      <c r="K51" s="1" t="inlineStr">
+      <c r="K51" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"288\nCalories\n\n\n8g \nFat\n\n\n47g \nCarbs\n\n\n9g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="52" spans="1:10">
-      <c r="A52" s="1" t="inlineStr">
+    <row r="52">
+      <c r="A52" t="inlineStr">
         <is>
           <t>1699658697-51</t>
         </is>
       </c>
-      <c r="B52" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1321/healthy-recipes/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C52" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D52" s="1" t="inlineStr">
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1321/healthy-recipes/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/ZQOdVX0GBXA2V4Z8Ik2-YwI8GHI=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3379636-e15a579324d34f9aa062132e8555f2e0.jpg"
@@ -3413,59 +3558,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E52" s="1" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/33118/german-potato-pancakes/</t>
         </is>
       </c>
-      <c r="F52" s="1" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>German Potato Pancakes</t>
         </is>
       </c>
-      <c r="G52" s="1" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n25 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H52" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 large eggs\n\n\n2 tablespoons all-purpose flour\n\n\n¼ teaspoon baking powder\n\n\n½ teaspoon salt\n\n\n¼ teaspoon pepper\n\n\n6 medium potatoes, peeled and shredded\n\n\n½ cup finely chopped onion\n\n\n¼ cup vegetable oil"}]</t>
-        </is>
-      </c>
-      <c r="I52" s="1" t="inlineStr">
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 large eggs\n\n\n2 tablespoons all-purpose flour\n\n\n¼ teaspoon baking powder\n\n\n½ teaspoon salt\n\n\n¼ teaspoon pepper\n\n\n6 medium potatoes, peeled and shredded\n\n\n½ cup finely chopped onion\n\n\n¼ cup vegetable oil'}]</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Beat eggs, flour, baking powder, salt, and pepper together in a large bowl; stir in potatoes and onion."},{"recipe_directions":"Heat oil in a large skillet over medium heat. Drop heaping tablespoonfuls of potato mixture into hot oil in batches. Press to flatten. Cook until browned and crisp, about 3 minutes on each side. Transfer to a paper towel-lined plate to drain. Repeat with remaining potato mixture."}]</t>
         </is>
       </c>
-      <c r="J52" s="1" t="inlineStr">
+      <c r="J52" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Potato"},{"recipe_tags":"Pancakes"}]</t>
         </is>
       </c>
-      <c r="K52" s="1" t="inlineStr">
+      <c r="K52" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"283\nCalories\n\n\n11g \nFat\n\n\n41g \nCarbs\n\n\n7g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="53" spans="1:10">
-      <c r="A53" s="1" t="inlineStr">
+    <row r="53">
+      <c r="A53" t="inlineStr">
         <is>
           <t>1699658705-52</t>
         </is>
       </c>
-      <c r="B53" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1321/healthy-recipes/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C53" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D53" s="1" t="inlineStr">
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1321/healthy-recipes/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/uyrSGjMQnWeF-YY-qj4XOYG45iE=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/235932-brazilian-grilled-pineapple-1x1-00064-1637e86633f04ad1b3a9a86390988be1.jpg"
@@ -3479,59 +3620,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E53" s="1" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/235932/brazilian-grilled-pineapple/</t>
         </is>
       </c>
-      <c r="F53" s="1" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>Brazilian Grilled Pineapple</t>
         </is>
       </c>
-      <c r="G53" s="1" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n6 \n\n\nYield:\n6 wedges"}]</t>
         </is>
       </c>
-      <c r="H53" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup brown sugar\n\n\n2 teaspoons ground cinnamon\n\n\n1  pineapple - peeled, cored, and cut into 6 wedges"}]</t>
-        </is>
-      </c>
-      <c r="I53" s="1" t="inlineStr">
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup brown sugar\n\n\n2 teaspoons ground cinnamon\n\n\n1  pineapple - peeled, cored, and cut into 6 wedges'}]</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat an outdoor grill for medium-high heat and lightly oil the grate."},{"recipe_directions":"Whisk brown sugar and cinnamon together in a bowl."},{"recipe_directions":"Transfer into a large resealable plastic bag. Add pineapple wedges to the bag; shake well to coat each wedge."},{"recipe_directions":"Grill pineapple wedges on the preheated grill until heated through, 3 to 5 minutes per side."}]</t>
         </is>
       </c>
-      <c r="J53" s="1" t="inlineStr">
+      <c r="J53" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"}]</t>
         </is>
       </c>
-      <c r="K53" s="1" t="inlineStr">
+      <c r="K53" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"255\nCalories\n\n\n0g \nFat\n\n\n66g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="54" spans="1:10">
-      <c r="A54" s="1" t="inlineStr">
+    <row r="54">
+      <c r="A54" t="inlineStr">
         <is>
           <t>1699658716-53</t>
         </is>
       </c>
-      <c r="B54" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1321/healthy-recipes/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C54" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D54" s="1" t="inlineStr">
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1321/healthy-recipes/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/j4USimeFnD5H2zTwVHsaGoNZqSo=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1999x0:2001x2):format(webp)/18249-baked-sweet-potatoes-DDMFS-4x3-ca310a21c01141d3b906da464aa7e27f.jpg"
@@ -3545,59 +3682,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E54" s="1" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/18249/baked-sweet-potatoes/</t>
         </is>
       </c>
-      <c r="F54" s="1" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>Baked Sweet Potatoes</t>
         </is>
       </c>
-      <c r="G54" s="1" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n45 mins\n\n\nTotal Time:\n 1 hr\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H54" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 tablespoons olive oil\n\n\n3 large sweet potatoes\n\n\n2 pinches dried oregano or to taste\n\n\n2 pinches salt\n\n\n2 pinches ground black pepper"}]</t>
-        </is>
-      </c>
-      <c r="I54" s="1" t="inlineStr">
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 tablespoons olive oil\n\n\n3 large sweet potatoes\n\n\n2 pinches dried oregano or to taste\n\n\n2 pinches salt\n\n\n2 pinches ground black pepper'}]</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"These baked sweet potato cubes will pair perfectly with all your favorite seasonal dinners."},{"recipe_directions":"You'll find a detailed ingredient list and step-by-step instructions in the recipe below, but let's go over the basics:"},{"recipe_directions":"These baked sweet potatoes are simply seasoned with dried oregano, salt, and pepper. Of course, you can flavor them however you like."},{"recipe_directions":"Here’s a brief overview of what you can expect when you bake sweet potatoes at home:"},{"recipe_directions":"In an oven preheated to 350 degrees F, three large cubed sweet potatoes should be perfectly baked and fork-tender in about 45 minutes."},{"recipe_directions":"You can wash, peel, and cube the sweet potatoes the day before you plan to serve the baked sweet potatoes to save time. Simply store the cubed sweet potatoes in an airtight container in the refrigerator."},{"recipe_directions":"You can store leftover baked sweet potato cubes in an airtight container in the refrigerator for up to five days."},{"recipe_directions":"“Absolutely delicious sweet potato recipe,” raves Bob Seale. “I roasted them on a prepared baking sheet and turned them over half way through to crisp them. Just before serving, I squeezed a few drops of fresh lemon juice over them.”"},{"recipe_directions":"“This was a hit,” according to Patti Copeland Talcott. ‘I made them to go with a pork loin roast and it was a great combination. Also very easy to make. Delicious.”"},{"recipe_directions":"“So easy to make,” says linda. “I didn't have oregano so I used Herbs de Provence. Will definitely make it again!”"},{"recipe_directions":"Editorial contributions by Corey Williams"},{"recipe_directions":"Gather all ingredients."},{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C). Coat the bottom of a glass or nonstick baking dish with olive oil, just enough to coat."},{"recipe_directions":"Wash and peel sweet potatoes; cut into medium pieces."},{"recipe_directions":"Place in the baking dish and stir to coat with olive oil. Sprinkle with oregano, salt, and pepper."},{"recipe_directions":"Bake in the preheated oven until soft and fork-tender, about 45 minutes to 1 hour."},{"recipe_directions":"Enjoy!"}]</t>
         </is>
       </c>
-      <c r="J54" s="1" t="inlineStr">
+      <c r="J54" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Sweet Potatoes"}]</t>
         </is>
       </c>
-      <c r="K54" s="1" t="inlineStr">
+      <c r="K54" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"181\nCalories\n\n\n7g \nFat\n\n\n28g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="55" spans="1:10">
-      <c r="A55" s="1" t="inlineStr">
+    <row r="55">
+      <c r="A55" t="inlineStr">
         <is>
           <t>1699658724-54</t>
         </is>
       </c>
-      <c r="B55" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1321/healthy-recipes/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C55" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D55" s="1" t="inlineStr">
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1321/healthy-recipes/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/oxTfulAjxyl6v36tVVQEWGffaB4=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(899x259:901x261):format(webp)/229692-easy-sweet-potato-casserole-my-hot-southern-mess-2x1-1-c4f48638b6074cf39992ebbad908bb89.jpg"
@@ -3611,59 +3744,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E55" s="1" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/229692/easy-sweet-potato-casserole/</t>
         </is>
       </c>
-      <c r="F55" s="1" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>Easy Sweet Potato Casserole</t>
         </is>
       </c>
-      <c r="G55" s="1" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n50 mins\n\n\nTotal Time:\n 1 hr\n\n\nServings:\n10"}]</t>
         </is>
       </c>
-      <c r="H55" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"6 large sweet potatoes, peeled and cut into chunks\n\n\n1 cup white sugar\n\n\n½ cup brown sugar\n\n\n2 tablespoons ground cinnamon\n\n\n1 tablespoon butter, softened\n\n\n1 cup miniature marshmallows, or as needed"}]</t>
-        </is>
-      </c>
-      <c r="I55" s="1" t="inlineStr">
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '6 large sweet potatoes, peeled and cut into chunks\n\n\n1 cup white sugar\n\n\n½ cup brown sugar\n\n\n2 tablespoons ground cinnamon\n\n\n1 tablespoon butter, softened\n\n\n1 cup miniature marshmallows, or as needed'}]</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place sweet potatoes in a large pot and cover with salted water; bring to a boil. Reduce heat to medium-low and simmer until tender, about 20 minutes; drain."},{"recipe_directions":"Preheat the oven to 375 degrees F (190 degrees C). Grease a deep casserole dish."},{"recipe_directions":"Mash potatoes with a potato masher in a bowl until no large lumps remain. Stir in both sugars, cinnamon, and butter until well combined, then transfer to the prepared casserole dish. Cover with a layer of miniature marshmallows."},{"recipe_directions":"Bake in the preheated oven until marshmallows are browned, about 30 minutes."}]</t>
         </is>
       </c>
-      <c r="J55" s="1" t="inlineStr">
+      <c r="J55" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Casseroles"},{"recipe_tags":"Sweet Potato Casserole Recipes"}]</t>
         </is>
       </c>
-      <c r="K55" s="1" t="inlineStr">
+      <c r="K55" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"385\nCalories\n\n\n1g \nFat\n\n\n91g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="56" spans="1:10">
-      <c r="A56" s="1" t="inlineStr">
+    <row r="56">
+      <c r="A56" t="inlineStr">
         <is>
           <t>1699658733-55</t>
         </is>
       </c>
-      <c r="B56" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1321/healthy-recipes/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C56" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D56" s="1" t="inlineStr">
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1321/healthy-recipes/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/-HScifwJEnADHwV2HuNXnOZVhwc=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1999x0:2001x2):format(webp)/241074-easy-garlic-kale-DDMFS-4x3-d90afb55e21a4d6bb2da0198b87523da.jpg"
@@ -3677,59 +3806,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E56" s="1" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/241074/easy-garlic-kale/</t>
         </is>
       </c>
-      <c r="F56" s="1" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>Easy Garlic Kale</t>
         </is>
       </c>
-      <c r="G56" s="1" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n7 mins\n\n\nCook Time:\n8 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H56" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 bunch kale\n\n\n1 tablespoon olive oil\n\n\n1 teaspoon minced garlic"}]</t>
-        </is>
-      </c>
-      <c r="I56" s="1" t="inlineStr">
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 bunch kale\n\n\n1 tablespoon olive oil\n\n\n1 teaspoon minced garlic'}]</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Add a delicious pop of color to your plate with this 3-ingredient kale recipe that comes together in just 15 minutes. If it sounds too good to be true, try this crowd-pleasing side dish for yourself — you'll be shocked at its simplicity."},{"recipe_directions":"This recipe for kale is incredibly easy to make with just three ingredients:"},{"recipe_directions":"Kale\nChoose sturdy kale that's evenly green and free of yellow or brown spots. The leaves should be crisp and unwilted."},{"recipe_directions":"Garlic\nA teaspoon of minced garlic adds just the right amount of flavor. You can keep it simple or add salt, pepper, and/or other seasonings to taste."},{"recipe_directions":"Oil\nThe kale is cooked in olive oil until bright green and tender."},{"recipe_directions":"You'll need to thoroughly clean the kale before you cook it. To prepare kale for cooking, simply soak the leaves in a large bowl of water until the grit sinks to the bottoms. Lift the leaves out and repeat the process with clean water if they're particularly dirty."},{"recipe_directions":"What you do next will depend on the recipe. For this one, immediately discard the stems and chop the kale into 1-inch pieces."},{"recipe_directions":"You'll find the full, step-by-step recipe below — but here's what you can expect when you make this incredibly easy garlic kale recipe:"},{"recipe_directions":"Heat olive oil in a skillet. Stir in garlic and cook until sizzling. Add kale to the skillet, toss, cover, and cook (tossing occasionally with tongs) until the kale is tender and vibrant green."},{"recipe_directions":"Let your leftovers cool to room temperature, then place them in a shallow airtight container. Store in the fridge for up to five days. Eat the kale cold, microwave it in 10-second increments, or reheat it on the stove."},{"recipe_directions":"Learn more: How to Store Kale"},{"recipe_directions":"\"I liked the simplicity of this recipe,\" says Allrecipes Allstar thedailygourmet. \"Great side and fast to make — no changes other than using kale that was already rinsed...it made preparation that much faster.\""},{"recipe_directions":"\"I will make it again,\" according to Clare. \"I added plain pasta and a sprinkling of mozzarella and Parmesan cheese to make it a complete meal.\""},{"recipe_directions":"\"This is such an easy quick way to fix such a delightful vegetable,\" raves Rebecca Mitchell. \"My whole family loved it! I used Cajun seasoning instead of salt and pepper because I was serving it alongside Cajun-style fried fish.\""},{"recipe_directions":"Editorial contributions by Corey Williams"},{"recipe_directions":"Gather all ingredients."},{"recipe_directions":"Soak kale leaves in a large bowl of water until dirt and sand begin to fall to the bottom, about 2 minutes. Lift kale from the bowl without drying the leaves and immediately remove and discard stems. Chop the kale leaves into 1-inch pieces."},{"recipe_directions":"Heat olive oil in a large skillet over medium heat; cook and stir garlic until sizzling, about 1 minute. Add kale to the skillet and place a cover over the top."},{"recipe_directions":"Cook, stirring occasionally with tongs, until kale is bright green and slightly tender, 5 to 7 minutes."},{"recipe_directions":"Enjoy!"}]</t>
         </is>
       </c>
-      <c r="J56" s="1" t="inlineStr">
+      <c r="J56" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Fruits and Vegetables"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Greens"},{"recipe_tags":"Kale"}]</t>
         </is>
       </c>
-      <c r="K56" s="1" t="inlineStr">
+      <c r="K56" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"87\nCalories\n\n\n4g \nFat\n\n\n11g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="57" spans="1:10">
-      <c r="A57" s="1" t="inlineStr">
+    <row r="57">
+      <c r="A57" t="inlineStr">
         <is>
           <t>1699658739-56</t>
         </is>
       </c>
-      <c r="B57" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1321/healthy-recipes/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C57" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D57" s="1" t="inlineStr">
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1321/healthy-recipes/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/LUzoxvJyI0zpkNqRMrBlFrmXCas=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/4526061-slow-cooker-baked-potatoes-Christina-1x1-1-9c03ad3d59704529b87d37e59232c83c.jpg"
@@ -3743,59 +3868,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E57" s="1" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/215314/slow-cooker-baked-potatoes/</t>
         </is>
       </c>
-      <c r="F57" s="1" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>Slow Cooker Baked Potatoes</t>
         </is>
       </c>
-      <c r="G57" s="1" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n 4 hrs 30 mins\n\n\nTotal Time:\n 4 hrs 40 mins\n\n\nServings:\n4 \n\n\nYield:\n4 potatoes"}]</t>
         </is>
       </c>
-      <c r="H57" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"4  baking potatoes, well scrubbed\n\n\n1 tablespoon extra virgin olive oil\n\n\n  kosher salt to taste\n\n\n4 sheets aluminum foil"}]</t>
-        </is>
-      </c>
-      <c r="I57" s="1" t="inlineStr">
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4  baking potatoes, well scrubbed\n\n\n1 tablespoon extra virgin olive oil\n\n\n  kosher salt to taste\n\n\n4 sheets aluminum foil'}]</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Prick potatoes with a fork several times, then rub with olive oil and season with salt. Wrap tightly in foil and place into the slow cooker."},{"recipe_directions":"Cook until tender, on Low for 7 1/2 hours or on High for 4 1/2 to 5 hours."}]</t>
         </is>
       </c>
-      <c r="J57" s="1" t="inlineStr">
+      <c r="J57" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Potato"},{"recipe_tags":"Baked Potato Recipes"}]</t>
         </is>
       </c>
-      <c r="K57" s="1" t="inlineStr">
+      <c r="K57" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"254\nCalories\n\n\n4g \nFat\n\n\n51g \nCarbs\n\n\n6g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="58" spans="1:10">
-      <c r="A58" s="1" t="inlineStr">
+    <row r="58">
+      <c r="A58" t="inlineStr">
         <is>
           <t>1699658745-57</t>
         </is>
       </c>
-      <c r="B58" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1321/healthy-recipes/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C58" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D58" s="1" t="inlineStr">
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1321/healthy-recipes/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/_l1CpAaxXBlJiXsuC7gxV0zi7dM=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1968731-daca7034ebbf49fd85fd2da3cd180e1b.jpg"
@@ -3808,59 +3929,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E58" s="1" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/229166/grilled-veggie-skewers/</t>
         </is>
       </c>
-      <c r="F58" s="1" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>Grilled Veggie Skewers</t>
         </is>
       </c>
-      <c r="G58" s="1" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n4 \n\n\nYield:\n8 skewers"}]</t>
         </is>
       </c>
-      <c r="H58" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1  fresh pineapple, cut into chunks\n\n\n2 medium zucchinis, cut into 1-inch slices\n\n\n2 medium yellow squash, cut into 1-inch slices\n\n\n½ pound whole fresh mushrooms\n\n\n1 medium red onion, cut into chunks\n\n\n12  cherry tomatoes\n\n\n1 medium red bell pepper, cut into chunks\n\n\n8  bamboo skewers, soaked in water for 20 minutes\n\n\n⅓ cup olive oil\n\n\n1 ½ teaspoons dried basil\n\n\n¾ teaspoon dried oregano\n\n\n½ teaspoon salt\n\n\n⅛ teaspoon ground black pepper"}]</t>
-        </is>
-      </c>
-      <c r="I58" s="1" t="inlineStr">
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1  fresh pineapple, cut into chunks\n\n\n2 medium zucchinis, cut into 1-inch slices\n\n\n2 medium yellow squash, cut into 1-inch slices\n\n\n½ pound whole fresh mushrooms\n\n\n1 medium red onion, cut into chunks\n\n\n12  cherry tomatoes\n\n\n1 medium red bell pepper, cut into chunks\n\n\n8  bamboo skewers, soaked in water for 20 minutes\n\n\n⅓ cup olive oil\n\n\n1 ½ teaspoons dried basil\n\n\n¾ teaspoon dried oregano\n\n\n½ teaspoon salt\n\n\n⅛ teaspoon ground black pepper'}]</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat a grill for medium heat and lightly oil the grate. Alternately thread pineapple chunks, zucchini slices, yellow squash slices, mushrooms, onion chunks, tomatoes, and bell pepper chunks onto skewers."},{"recipe_directions":"Whisk olive oil, basil, oregano, salt, and black pepper in a bowl; brush some of the mixture over vegetables."},{"recipe_directions":"Cook skewers on the preheated grill until vegetables are tender, turning and basting vegetables with remaining olive oil mixture occasionally, 10 to 15 minutes."},{"recipe_directions":"Please note the differences in ingredient amounts and serving size when using the magazine version of this recipe."}]</t>
         </is>
       </c>
-      <c r="J58" s="1" t="inlineStr">
+      <c r="J58" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"BBQ &amp; Grilling"},{"recipe_tags":"Vegetables"}]</t>
         </is>
       </c>
-      <c r="K58" s="1" t="inlineStr">
+      <c r="K58" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"406\nCalories\n\n\n19g \nFat\n\n\n60g \nCarbs\n\n\n7g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="59" spans="1:10">
-      <c r="A59" s="1" t="inlineStr">
+    <row r="59">
+      <c r="A59" t="inlineStr">
         <is>
           <t>1699658752-58</t>
         </is>
       </c>
-      <c r="B59" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1321/healthy-recipes/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C59" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D59" s="1" t="inlineStr">
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1321/healthy-recipes/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/_swFjGBgwDDSackSyYEeG88ezXE=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1999x0:2001x2):format(webp)/20963-oven-roasted-potatoes-DDMFS-4x3-ada74550e9454bd3afc343a1bf88270f.jpg"
@@ -3874,59 +3991,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E59" s="1" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/20963/oven-roasted-potatoes/</t>
         </is>
       </c>
-      <c r="F59" s="1" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>Oven Roasted Potatoes</t>
         </is>
       </c>
-      <c r="G59" s="1" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n30 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H59" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"⅛ cup olive oil\n\n\n1 tablespoon minced garlic\n\n\n½ teaspoon dried basil\n\n\n½ teaspoon dried marjoram\n\n\n½ teaspoon dried dill weed\n\n\n½ teaspoon dried thyme\n\n\n½ teaspoon dried oregano\n\n\n½ teaspoon dried parsley\n\n\n½ teaspoon crushed red pepper flakes\n\n\n½ teaspoon salt\n\n\n4 large potatoes, peeled and cubed"}]</t>
-        </is>
-      </c>
-      <c r="I59" s="1" t="inlineStr">
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '⅛ cup olive oil\n\n\n1 tablespoon minced garlic\n\n\n½ teaspoon dried basil\n\n\n½ teaspoon dried marjoram\n\n\n½ teaspoon dried dill weed\n\n\n½ teaspoon dried thyme\n\n\n½ teaspoon dried oregano\n\n\n½ teaspoon dried parsley\n\n\n½ teaspoon crushed red pepper flakes\n\n\n½ teaspoon salt\n\n\n4 large potatoes, peeled and cubed'}]</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 475 degrees F (245 degrees C)."},{"recipe_directions":"Combine oil, garlic, basil, marjoram, dill, thyme, oregano, parsley, pepper flakes, and salt in a large bowl."},{"recipe_directions":"Stir in potatoes until evenly coated. Place potatoes in a single layer on a roasting pan or baking sheet."},{"recipe_directions":"Roast in the preheated oven, turning occasionally to brown on all sides, until tender, about 20 to 30 minutes."},{"recipe_directions":"Serve hot and enjoy!"}]</t>
         </is>
       </c>
-      <c r="J59" s="1" t="inlineStr">
+      <c r="J59" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Potato"},{"recipe_tags":"Roasted Potato Recipes"}]</t>
         </is>
       </c>
-      <c r="K59" s="1" t="inlineStr">
+      <c r="K59" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"289\nCalories\n\n\n7g \nFat\n\n\n53g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="60" spans="1:10">
-      <c r="A60" s="1" t="inlineStr">
+    <row r="60">
+      <c r="A60" t="inlineStr">
         <is>
           <t>1699658760-59</t>
         </is>
       </c>
-      <c r="B60" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1321/healthy-recipes/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C60" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D60" s="1" t="inlineStr">
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1321/healthy-recipes/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/kTRoNtcdLG8RwmAsmKJqATEf1H0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1010236-12ea61759d8b449e868e5bf187c9a1ca.jpg"
@@ -3940,59 +4053,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E60" s="1" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/220642/quick-and-easy-refried-beans/</t>
         </is>
       </c>
-      <c r="F60" s="1" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>Quick and Easy Refried Beans</t>
         </is>
       </c>
-      <c r="G60" s="1" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H60" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 tablespoons canola oil\n\n\n2  garlic cloves, peeled\n\n\n2 (15 ounce) cans pinto beans\n\n\n1 teaspoon cumin\n\n\n1 teaspoon chili powder\n\n\n  salt to taste\n\n\n½  lime, juiced"}]</t>
-        </is>
-      </c>
-      <c r="I60" s="1" t="inlineStr">
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 tablespoons canola oil\n\n\n2  garlic cloves, peeled\n\n\n2 (15 ounce) cans pinto beans\n\n\n1 teaspoon cumin\n\n\n1 teaspoon chili powder\n\n\n  salt to taste\n\n\n½  lime, juiced'}]</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"These shortcut refried beans are easy to make and even easier to eat."},{"recipe_directions":"You'll find a detailed ingredient list and step-by-step instructions in the recipe below, but let's go over the basics:"},{"recipe_directions":"Though the name “refried beans” implies the beans are fried twice, they’re actually only fried once. Traditionally, pinto beans are cooked and mashed, then fried on the stove until thick. This recipe starts with canned beans, which cuts the cooking time considerably."},{"recipe_directions":"These homemade refried beans are flavored with fresh garlic, ground cumin, ground chili powder, salt, and fresh lime juice."},{"recipe_directions":"Here’s a brief overview of what you can expect when you make refried beans at home:"},{"recipe_directions":"Store the refried beans in an airtight container in the refrigerator for up to four days. Reheat gently in the microwave or on the stove."},{"recipe_directions":"Sure! You can freeze refried beans for up to three months. Freeze them in serving-sized portions in zip-top bags or another freezer-safe container. Thaw in the refrigerator overnight."},{"recipe_directions":"“This is an amazing recipe,” according to Miz Bonnie. “The best refried beans EVER! So easy and fast and tastes just as good as the ones made from dried beans. It’s now my very favorite refried bean recipe!”"},{"recipe_directions":"“I love how quick and easy this recipe is,” says Nic. “Great to throw together at the last minute or when you don't feel like cooking. I added some onion but pretty much stuck with the recipe. Good stuff.”"},{"recipe_directions":"“I absolutely love this recipe,” raves Courtney J. “Super fast and convenient. And it tastes amazing. I'm never going back!”"},{"recipe_directions":"Editorial contributions by Corey Williams"},{"recipe_directions":"Heat canola oil in a heavy skillet over medium heat."},{"recipe_directions":"Cook garlic cloves in hot oil, turning once, until brown on both sides, 4 to 5 minutes. Smash garlic cloves in the skillet with a fork."},{"recipe_directions":"Stir pinto beans, cumin, chili powder, and salt into mashed garlic and cook until beans are thoroughly heated, about 5 minutes. Stir occasionally."},{"recipe_directions":"Smash bean mixture with a potato masher to desired texture. Squeeze lime juice over smashed beans and stir until combined."}]</t>
         </is>
       </c>
-      <c r="J60" s="1" t="inlineStr">
+      <c r="J60" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Beans and Peas"},{"recipe_tags":"Refried Bean Recipes"}]</t>
         </is>
       </c>
-      <c r="K60" s="1" t="inlineStr">
+      <c r="K60" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"132\nCalories\n\n\n6g \nFat\n\n\n16g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="61" spans="1:10">
-      <c r="A61" s="1" t="inlineStr">
+    <row r="61">
+      <c r="A61" t="inlineStr">
         <is>
           <t>1699658767-60</t>
         </is>
       </c>
-      <c r="B61" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1321/healthy-recipes/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C61" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D61" s="1" t="inlineStr">
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1321/healthy-recipes/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Jj8uFEoujMXoRKJAlxDrAR5AS7w=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/644668-8c07cad9cd1c4cf79a658424db03de6d.jpg"
@@ -4006,59 +4115,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E61" s="1" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/76954/roasted-new-red-potatoes/</t>
         </is>
       </c>
-      <c r="F61" s="1" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>Roasted New Red Potatoes</t>
         </is>
       </c>
-      <c r="G61" s="1" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n8"}]</t>
         </is>
       </c>
-      <c r="H61" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3 pounds small red new potatoes, halved\n\n\n¼ cup olive oil\n\n\n1 teaspoon salt and freshly ground black pepper"}]</t>
-        </is>
-      </c>
-      <c r="I61" s="1" t="inlineStr">
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 pounds small red new potatoes, halved\n\n\n¼ cup olive oil\n\n\n1 teaspoon salt and freshly ground black pepper'}]</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 400 degrees F (200 degrees C) and adjust the oven rack to the lowest position."},{"recipe_directions":"Toss potatoes with oil, salt, and pepper in a bowl. Arrange, cut-side down, on a rimmed cookie sheet or jellyroll pan."},{"recipe_directions":"Roast potatoes in the preheated oven until tender and golden brown, 20 to 30 minutes. Transfer to a serving dish."}]</t>
         </is>
       </c>
-      <c r="J61" s="1" t="inlineStr">
+      <c r="J61" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Potato"},{"recipe_tags":"Roasted Potato Recipes"}]</t>
         </is>
       </c>
-      <c r="K61" s="1" t="inlineStr">
+      <c r="K61" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"179\nCalories\n\n\n7g \nFat\n\n\n27g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="62" spans="1:10">
-      <c r="A62" s="1" t="inlineStr">
+    <row r="62">
+      <c r="A62" t="inlineStr">
         <is>
           <t>1699658774-61</t>
         </is>
       </c>
-      <c r="B62" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/1321/healthy-recipes/side-dishes/</t>
-        </is>
-      </c>
-      <c r="C62" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D62" s="1" t="inlineStr">
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/1321/healthy-recipes/side-dishes/</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/XCRQnSNt96fyVZ0sxmrTUxXGtfA=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(719x979:721x981):format(webp)/1765553-easy-roasted-broccoli-FranceC-1x1-1-327e091005644ea99b1ce0107d3dd2c6.jpg"
@@ -4072,42 +4177,43 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E62" s="1" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/240438/easy-roasted-broccoli/</t>
         </is>
       </c>
-      <c r="F62" s="1" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>Easy Roasted Broccoli</t>
         </is>
       </c>
-      <c r="G62" s="1" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H62" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"14 ounces broccoli\n\n\n1 tablespoon olive oil\n\n\n  salt and ground black pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I62" s="1" t="inlineStr">
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '14 ounces broccoli\n\n\n1 tablespoon olive oil\n\n\n  salt and ground black pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"This easy roasted broccoli is easy to make and will satisfy even the pickiest eaters."},{"recipe_directions":"You'll find a detailed ingredient list and step-by-step instructions in the recipe below, but let's go over the basics:"},{"recipe_directions":"In an oven preheated to 400 degrees F, your broccoli should be perfectly roasted in about 20 minutes. It’ll be tender and lightly browned when it’s ready to eat."},{"recipe_directions":"Here’s a brief overview of what you can expect when you roast broccoli at home:"},{"recipe_directions":"While this recipe works best with fresh florets, you can technically make it with frozen broccoli. Don’t thaw the broccoli at all before roasting, just stick it in the oven straight from the freezer."},{"recipe_directions":"If you have leftover roasted broccoli, you can store it in an airtight container for three to five days. Reheat it in the oven instead of in the microwave for the crispiest results."},{"recipe_directions":"“Great recipe,” raves ronduarte. “I actually added carrots, some sweet peppers and red onion. It was good! I will be using this recipe again.”"},{"recipe_directions":"“Quick, easy, and very yummy,” according to Emma Sherman. “Did this for meal prep alongside roast beef and roasted sweet potatoes. Seasoned generously with salt and pepper before baking. Easy easy easy!”"},{"recipe_directions":"“I made this the other night for my family and it was devoured,” says Myrna. “Just before serving I added butter and grated Parmesan cheese. This will be requested often.”"},{"recipe_directions":"Editorial contributions by Corey Williams"},{"recipe_directions":"Preheat the oven to 400 degrees F (200 degrees C)."},{"recipe_directions":"Cut broccoli florets from the stalk. Peel the stalk and slice into 1/4-inch slices. Mix florets and stem pieces with olive oil in a bowl and transfer to a baking sheet; season with salt and pepper."},{"recipe_directions":"Roast in the preheated oven until broccoli is tender and lightly browned, about 18 to 20 minutes."}]</t>
         </is>
       </c>
-      <c r="J62" s="1" t="inlineStr">
+      <c r="J62" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Broccoli"}]</t>
         </is>
       </c>
-      <c r="K62" s="1" t="inlineStr">
+      <c r="K62" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"63\nCalories\n\n\n4g \nFat\n\n\n7g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>